--- a/CreatedFiles/KPIR_2016_6793060742.xlsx
+++ b/CreatedFiles/KPIR_2016_6793060742.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="133">
   <si>
     <t>Lp</t>
   </si>
@@ -398,6 +398,21 @@
   </si>
   <si>
     <t>3865,09</t>
+  </si>
+  <si>
+    <t>RYSZARD MAKOWSKI</t>
+  </si>
+  <si>
+    <t>P4 SP. Z O.O.</t>
+  </si>
+  <si>
+    <t>SHELL POLSKA SP. Z O.O.</t>
+  </si>
+  <si>
+    <t>X-KOM SP. Z O.O.</t>
+  </si>
+  <si>
+    <t>ADVATUS SP. Z O.O.</t>
   </si>
 </sst>
 </file>
@@ -405,13 +420,286 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="118">
+  <fonts count="157">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
     </font>
     <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:sz val="9"/>
@@ -1393,7 +1681,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="157">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <main:alignment horizontal="center" vertical="center"/>
@@ -1577,97 +1865,188 @@
     <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="76" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="77" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="78" numFmtId="0" xfId="0"/>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="1" fillId="0" fontId="79" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="79" numFmtId="0" xfId="0">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="1" fillId="0" fontId="80" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="80" numFmtId="0" xfId="0">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="2" fillId="0" fontId="81" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="81" numFmtId="0" xfId="0">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="3" fillId="0" fontId="82" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="82" numFmtId="0" xfId="0">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="4" fillId="0" fontId="83" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="83" numFmtId="0" xfId="0">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="5" fillId="0" fontId="84" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="84" numFmtId="0" xfId="0">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="2" fillId="0" fontId="85" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="85" numFmtId="0" xfId="0">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="3" fillId="0" fontId="86" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="86" numFmtId="0" xfId="0">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="2" fillId="0" fontId="87" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="87" numFmtId="0" xfId="0">
       <main:alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="5" fillId="0" fontId="88" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="88" numFmtId="0" xfId="0">
       <main:alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="3" fillId="0" fontId="89" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="89" numFmtId="0" xfId="0">
       <main:alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="6" fillId="0" fontId="90" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="90" numFmtId="0" xfId="0">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="1" fillId="0" fontId="91" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="91" numFmtId="0" xfId="0">
       <main:alignment horizontal="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="7" fillId="0" fontId="92" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="92" numFmtId="0" xfId="0">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="true" applyFont="true" borderId="1" fillId="0" fontId="93" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
-    <xf applyBorder="true" applyFont="true" borderId="2" fillId="0" fontId="94" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
-    <xf applyBorder="true" applyFont="true" borderId="3" fillId="0" fontId="95" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
-    <xf applyBorder="true" applyFont="true" borderId="8" fillId="0" fontId="96" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
-    <xf applyBorder="true" applyFont="true" borderId="4" fillId="0" fontId="97" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="2" fillId="0" fontId="98" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="93" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="94" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="95" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="96" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="97" numFmtId="0" xfId="0"/>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="98" numFmtId="0" xfId="0">
       <main:alignment horizontal="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="5" fillId="0" fontId="99" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="99" numFmtId="0" xfId="0">
       <main:alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="true" applyFont="true" borderId="9" fillId="0" fontId="100" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="10" fillId="0" fontId="101" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+    <xf applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="100" numFmtId="0" xfId="0"/>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="101" numFmtId="0" xfId="0">
       <main:alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="true" applyFont="true" borderId="3" fillId="0" fontId="102" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="1" fillId="0" fontId="103" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+    <xf applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="102" numFmtId="0" xfId="0"/>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="103" numFmtId="0" xfId="0">
       <main:alignment horizontal="right"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="104" numFmtId="4" xfId="0" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="104" numFmtId="4" xfId="0">
       <main:alignment horizontal="right"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="105" numFmtId="4" xfId="0" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="105" numFmtId="4" xfId="0">
       <main:alignment horizontal="right"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="2" fillId="0" fontId="106" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="106" numFmtId="0" xfId="0">
       <main:alignment horizontal="right"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="3" fillId="0" fontId="107" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="107" numFmtId="0" xfId="0">
       <main:alignment horizontal="right"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="108" numFmtId="2" xfId="0" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="108" numFmtId="2" xfId="0">
       <main:alignment horizontal="right"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="109" numFmtId="2" xfId="0" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="109" numFmtId="2" xfId="0">
       <main:alignment horizontal="right"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="3" fillId="0" fontId="110" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="110" numFmtId="0" xfId="0">
       <main:alignment horizontal="center"/>
     </xf>
-    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="111" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
-    <xf applyBorder="true" applyFont="true" borderId="0" fillId="0" fontId="112" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="1" fillId="0" fontId="113" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="111" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="112" numFmtId="0" xfId="0"/>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="113" numFmtId="0" xfId="0">
       <main:alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="true" applyFont="true" borderId="9" fillId="0" fontId="114" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
-    <xf applyBorder="true" applyFont="true" borderId="10" fillId="0" fontId="115" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
-    <xf applyBorder="true" borderId="10" fillId="0" fontId="116" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
-    <xf applyBorder="true" applyFont="true" borderId="12" fillId="0" fontId="117" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="114" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="115" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="116" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="117" numFmtId="0" xfId="0"/>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="1" fillId="0" fontId="118" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="1" fillId="0" fontId="119" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="2" fillId="0" fontId="120" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="3" fillId="0" fontId="121" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="4" fillId="0" fontId="122" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="5" fillId="0" fontId="123" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="2" fillId="0" fontId="124" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="3" fillId="0" fontId="125" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="2" fillId="0" fontId="126" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="5" fillId="0" fontId="127" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="3" fillId="0" fontId="128" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="6" fillId="0" fontId="129" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="1" fillId="0" fontId="130" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="7" fillId="0" fontId="131" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="1" fillId="0" fontId="132" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf applyBorder="true" applyFont="true" borderId="2" fillId="0" fontId="133" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf applyBorder="true" applyFont="true" borderId="3" fillId="0" fontId="134" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf applyBorder="true" applyFont="true" borderId="8" fillId="0" fontId="135" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf applyBorder="true" applyFont="true" borderId="4" fillId="0" fontId="136" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="2" fillId="0" fontId="137" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="5" fillId="0" fontId="138" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="true" applyFont="true" borderId="9" fillId="0" fontId="139" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="10" fillId="0" fontId="140" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="true" applyFont="true" borderId="3" fillId="0" fontId="141" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="1" fillId="0" fontId="142" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="right"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="143" numFmtId="4" xfId="0" applyFill="true">
+      <main:alignment horizontal="right"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="144" numFmtId="4" xfId="0" applyFill="true">
+      <main:alignment horizontal="right"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="2" fillId="0" fontId="145" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="right"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="3" fillId="0" fontId="146" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="right"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="147" numFmtId="2" xfId="0" applyFill="true">
+      <main:alignment horizontal="right"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="148" numFmtId="2" xfId="0" applyFill="true">
+      <main:alignment horizontal="right"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="3" fillId="0" fontId="149" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="150" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf applyBorder="true" applyFont="true" borderId="0" fillId="0" fontId="151" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="1" fillId="0" fontId="152" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment wrapText="1"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="9" fillId="0" fontId="153" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf applyBorder="true" applyFont="true" borderId="10" fillId="0" fontId="154" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf applyBorder="true" borderId="10" fillId="0" fontId="155" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyBorder="true" applyFont="true" borderId="12" fillId="0" fontId="156" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -3866,36 +4245,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="8.0" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="8.0" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="8.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="8.0" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="8.0" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="17.875" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="8.0" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="8.0" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="8.0" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="8.0" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="8.0" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="8.0" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="8.0" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" width="8.0" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="8.0" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" width="8.0" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" width="8.0" collapsed="false"/>
-    <col min="18" max="18" customWidth="true" width="8.0" collapsed="false"/>
-    <col min="19" max="19" customWidth="true" width="8.0" collapsed="false"/>
-    <col min="20" max="20" customWidth="true" width="8.0" collapsed="false"/>
-    <col min="21" max="21" customWidth="true" width="8.0" collapsed="false"/>
-    <col min="22" max="22" customWidth="true" width="8.0" collapsed="false"/>
-    <col min="23" max="23" customWidth="true" width="8.0" collapsed="false"/>
-    <col min="24" max="24" customWidth="true" width="8.0" collapsed="false"/>
-    <col min="25" max="25" customWidth="true" width="8.0" collapsed="false"/>
-    <col min="26" max="26" customWidth="true" width="8.0" collapsed="false"/>
-    <col min="27" max="27" customWidth="true" width="8.0" collapsed="false"/>
-    <col min="28" max="28" customWidth="true" width="8.0" collapsed="false"/>
-    <col min="29" max="29" customWidth="true" width="10.0" collapsed="false"/>
-    <col min="30" max="30" customWidth="true" width="8.0" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="8.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row customHeight="true" ht="124.5" r="1">
@@ -6085,1866 +6464,1866 @@
   </cols>
   <sheetData>
     <row r="1" ht="124.5" customHeight="true">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="80" t="s">
+      <c r="C1" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="81" t="s">
+      <c r="D1" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="82"/>
-      <c r="F1" s="83" t="s">
+      <c r="E1" s="121"/>
+      <c r="F1" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="81" t="s">
+      <c r="G1" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="85" t="s">
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="86"/>
-      <c r="O1" s="85" t="s">
+      <c r="N1" s="125"/>
+      <c r="O1" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="81" t="s">
+      <c r="P1" s="125"/>
+      <c r="Q1" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
-      <c r="W1" s="84"/>
-      <c r="X1" s="82"/>
-      <c r="Y1" s="87" t="s">
+      <c r="R1" s="123"/>
+      <c r="S1" s="123"/>
+      <c r="T1" s="123"/>
+      <c r="U1" s="123"/>
+      <c r="V1" s="123"/>
+      <c r="W1" s="123"/>
+      <c r="X1" s="121"/>
+      <c r="Y1" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="Z1" s="88"/>
-      <c r="AA1" s="88"/>
-      <c r="AB1" s="89"/>
-      <c r="AC1" s="79" t="s">
+      <c r="Z1" s="127"/>
+      <c r="AA1" s="127"/>
+      <c r="AB1" s="128"/>
+      <c r="AC1" s="118" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" ht="47.25" customHeight="true">
-      <c r="A2" s="79"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80" t="s">
+      <c r="A2" s="118"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="79" t="s">
+      <c r="E2" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="90"/>
-      <c r="G2" s="85" t="s">
+      <c r="F2" s="129"/>
+      <c r="G2" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="86"/>
-      <c r="I2" s="85" t="s">
+      <c r="H2" s="125"/>
+      <c r="I2" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="86"/>
-      <c r="K2" s="85" t="s">
+      <c r="J2" s="125"/>
+      <c r="K2" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="86"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="85" t="s">
+      <c r="L2" s="125"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="86"/>
-      <c r="S2" s="85" t="s">
+      <c r="R2" s="125"/>
+      <c r="S2" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="86"/>
-      <c r="U2" s="85" t="s">
+      <c r="T2" s="125"/>
+      <c r="U2" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="86"/>
-      <c r="W2" s="91"/>
-      <c r="X2" s="91"/>
-      <c r="Y2" s="85" t="s">
+      <c r="V2" s="125"/>
+      <c r="W2" s="130"/>
+      <c r="X2" s="130"/>
+      <c r="Y2" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="Z2" s="86"/>
-      <c r="AA2" s="81" t="s">
+      <c r="Z2" s="125"/>
+      <c r="AA2" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="AB2" s="82"/>
-      <c r="AC2" s="79"/>
+      <c r="AB2" s="121"/>
+      <c r="AC2" s="118"/>
     </row>
     <row r="3" ht="14.25" customHeight="true">
-      <c r="A3" s="79"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="93" t="s">
+      <c r="A3" s="118"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="93" t="s">
+      <c r="H3" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="93" t="s">
+      <c r="I3" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="93" t="s">
+      <c r="J3" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="93" t="s">
+      <c r="K3" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="93" t="s">
+      <c r="L3" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="93" t="s">
+      <c r="M3" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="93" t="s">
+      <c r="N3" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="93" t="s">
+      <c r="O3" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="93" t="s">
+      <c r="P3" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="93" t="s">
+      <c r="Q3" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="R3" s="93" t="s">
+      <c r="R3" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="S3" s="93" t="s">
+      <c r="S3" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="93" t="s">
+      <c r="T3" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="93" t="s">
+      <c r="U3" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="V3" s="93" t="s">
+      <c r="V3" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="W3" s="93" t="s">
+      <c r="W3" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="X3" s="94" t="s">
+      <c r="X3" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="Y3" s="94"/>
-      <c r="Z3" s="95"/>
-      <c r="AA3" s="96" t="s">
+      <c r="Y3" s="133"/>
+      <c r="Z3" s="134"/>
+      <c r="AA3" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="AB3" s="97" t="s">
+      <c r="AB3" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="AC3" s="79"/>
+      <c r="AC3" s="118"/>
     </row>
     <row r="4" ht="14.25" customHeight="true">
-      <c r="A4" s="91" t="n">
+      <c r="A4" s="130" t="n">
         <v>1.0</v>
       </c>
-      <c r="B4" s="91" t="n">
+      <c r="B4" s="130" t="n">
         <v>2.0</v>
       </c>
-      <c r="C4" s="91" t="n">
+      <c r="C4" s="130" t="n">
         <v>3.0</v>
       </c>
-      <c r="D4" s="91" t="n">
+      <c r="D4" s="130" t="n">
         <v>4.0</v>
       </c>
-      <c r="E4" s="91" t="n">
+      <c r="E4" s="130" t="n">
         <v>5.0</v>
       </c>
-      <c r="F4" s="91" t="n">
+      <c r="F4" s="130" t="n">
         <v>6.0</v>
       </c>
-      <c r="G4" s="91" t="n">
+      <c r="G4" s="130" t="n">
         <v>7.0</v>
       </c>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91" t="n">
+      <c r="H4" s="130"/>
+      <c r="I4" s="130" t="n">
         <v>8.0</v>
       </c>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91" t="n">
+      <c r="J4" s="130"/>
+      <c r="K4" s="130" t="n">
         <v>9.0</v>
       </c>
-      <c r="L4" s="91"/>
-      <c r="M4" s="91" t="n">
+      <c r="L4" s="130"/>
+      <c r="M4" s="130" t="n">
         <v>10.0</v>
       </c>
-      <c r="N4" s="91"/>
-      <c r="O4" s="91" t="n">
+      <c r="N4" s="130"/>
+      <c r="O4" s="130" t="n">
         <v>11.0</v>
       </c>
-      <c r="P4" s="91"/>
-      <c r="Q4" s="91" t="n">
+      <c r="P4" s="130"/>
+      <c r="Q4" s="130" t="n">
         <v>12.0</v>
       </c>
-      <c r="R4" s="91"/>
-      <c r="S4" s="91" t="n">
+      <c r="R4" s="130"/>
+      <c r="S4" s="130" t="n">
         <v>13.0</v>
       </c>
-      <c r="T4" s="91"/>
-      <c r="U4" s="91" t="n">
+      <c r="T4" s="130"/>
+      <c r="U4" s="130" t="n">
         <v>14.0</v>
       </c>
-      <c r="V4" s="91"/>
-      <c r="W4" s="98" t="n">
+      <c r="V4" s="130"/>
+      <c r="W4" s="137" t="n">
         <v>15.0</v>
       </c>
-      <c r="X4" s="99"/>
-      <c r="Y4" s="100"/>
-      <c r="Z4" s="101" t="n">
+      <c r="X4" s="138"/>
+      <c r="Y4" s="139"/>
+      <c r="Z4" s="140" t="n">
         <v>16.0</v>
       </c>
-      <c r="AA4" s="99"/>
-      <c r="AB4" s="102"/>
-      <c r="AC4" s="79" t="n">
+      <c r="AA4" s="138"/>
+      <c r="AB4" s="141"/>
+      <c r="AC4" s="118" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="true">
-      <c r="A5" s="103" t="s">
+      <c r="A5" s="142" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="130" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="91" t="s">
+      <c r="C5" s="130" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="93" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="93" t="s">
+      <c r="D5" s="132" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="132" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="93" t="s">
+      <c r="F5" s="132" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="104" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="105"/>
-      <c r="I5" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="107"/>
-      <c r="K5" s="104" t="s">
+      <c r="G5" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="144"/>
+      <c r="I5" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="146"/>
+      <c r="K5" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="105"/>
-      <c r="M5" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="107"/>
-      <c r="O5" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="R5" s="107"/>
-      <c r="S5" s="108" t="s">
+      <c r="L5" s="144"/>
+      <c r="M5" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="146"/>
+      <c r="O5" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="146"/>
+      <c r="Q5" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" s="146"/>
+      <c r="S5" s="147" t="s">
         <v>101</v>
       </c>
-      <c r="T5" s="109"/>
-      <c r="U5" s="108" t="s">
+      <c r="T5" s="148"/>
+      <c r="U5" s="147" t="s">
         <v>101</v>
       </c>
-      <c r="V5" s="109"/>
-      <c r="W5" s="98"/>
-      <c r="X5" s="110"/>
-      <c r="Y5" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z5" s="109"/>
-      <c r="AA5" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB5" s="107"/>
-      <c r="AC5" s="79" t="s">
+      <c r="V5" s="148"/>
+      <c r="W5" s="137"/>
+      <c r="X5" s="149"/>
+      <c r="Y5" s="147" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z5" s="148"/>
+      <c r="AA5" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB5" s="146"/>
+      <c r="AC5" s="118" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="true">
-      <c r="A6" s="103" t="s">
+      <c r="A6" s="142" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="130" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="130" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="93" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="93" t="s">
+      <c r="D6" s="132" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="132" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="93" t="s">
+      <c r="F6" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="104" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="105"/>
-      <c r="I6" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="107"/>
-      <c r="K6" s="104" t="s">
+      <c r="G6" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="144"/>
+      <c r="I6" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="146"/>
+      <c r="K6" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="105"/>
-      <c r="M6" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="107"/>
-      <c r="O6" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="P6" s="107"/>
-      <c r="Q6" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="R6" s="107"/>
-      <c r="S6" s="108" t="s">
+      <c r="L6" s="144"/>
+      <c r="M6" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="146"/>
+      <c r="O6" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="146"/>
+      <c r="Q6" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="146"/>
+      <c r="S6" s="147" t="s">
         <v>105</v>
       </c>
-      <c r="T6" s="109"/>
-      <c r="U6" s="108" t="s">
+      <c r="T6" s="148"/>
+      <c r="U6" s="147" t="s">
         <v>105</v>
       </c>
-      <c r="V6" s="109"/>
-      <c r="W6" s="98"/>
-      <c r="X6" s="110"/>
-      <c r="Y6" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z6" s="109"/>
-      <c r="AA6" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB6" s="107"/>
-      <c r="AC6" s="79" t="s">
+      <c r="V6" s="148"/>
+      <c r="W6" s="137"/>
+      <c r="X6" s="149"/>
+      <c r="Y6" s="147" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z6" s="148"/>
+      <c r="AA6" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB6" s="146"/>
+      <c r="AC6" s="118" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="true">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="142" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="130" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="91" t="s">
+      <c r="C7" s="130" t="s">
         <v>108</v>
       </c>
-      <c r="D7" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="93" t="s">
+      <c r="D7" s="132" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="132" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="93" t="s">
+      <c r="F7" s="132" t="s">
         <v>73</v>
       </c>
-      <c r="G7" s="104" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="105"/>
-      <c r="I7" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="107"/>
-      <c r="K7" s="104" t="s">
+      <c r="G7" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="144"/>
+      <c r="I7" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="146"/>
+      <c r="K7" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="105"/>
-      <c r="M7" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" s="107"/>
-      <c r="O7" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="R7" s="107"/>
-      <c r="S7" s="108" t="s">
+      <c r="L7" s="144"/>
+      <c r="M7" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="146"/>
+      <c r="O7" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="146"/>
+      <c r="Q7" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="R7" s="146"/>
+      <c r="S7" s="147" t="s">
         <v>109</v>
       </c>
-      <c r="T7" s="109"/>
-      <c r="U7" s="108" t="s">
+      <c r="T7" s="148"/>
+      <c r="U7" s="147" t="s">
         <v>109</v>
       </c>
-      <c r="V7" s="109"/>
-      <c r="W7" s="98"/>
-      <c r="X7" s="110"/>
-      <c r="Y7" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z7" s="109"/>
-      <c r="AA7" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB7" s="107"/>
-      <c r="AC7" s="79" t="s">
+      <c r="V7" s="148"/>
+      <c r="W7" s="137"/>
+      <c r="X7" s="149"/>
+      <c r="Y7" s="147" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z7" s="148"/>
+      <c r="AA7" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB7" s="146"/>
+      <c r="AC7" s="118" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="true">
-      <c r="A8" s="103" t="s">
+      <c r="A8" s="142" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="130" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="91" t="s">
+      <c r="C8" s="130" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="93" t="s">
+      <c r="D8" s="132" t="s">
         <v>113</v>
       </c>
-      <c r="E8" s="93" t="s">
+      <c r="E8" s="132" t="s">
         <v>114</v>
       </c>
-      <c r="F8" s="93" t="s">
+      <c r="F8" s="132" t="s">
         <v>115</v>
       </c>
-      <c r="G8" s="104" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="105"/>
-      <c r="I8" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="107"/>
-      <c r="K8" s="104" t="s">
+      <c r="G8" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="144"/>
+      <c r="I8" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="146"/>
+      <c r="K8" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="105"/>
-      <c r="M8" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8" s="107"/>
-      <c r="O8" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="P8" s="107"/>
-      <c r="Q8" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="R8" s="107"/>
-      <c r="S8" s="108" t="s">
+      <c r="L8" s="144"/>
+      <c r="M8" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="146"/>
+      <c r="O8" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" s="146"/>
+      <c r="Q8" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="R8" s="146"/>
+      <c r="S8" s="147" t="s">
         <v>116</v>
       </c>
-      <c r="T8" s="109"/>
-      <c r="U8" s="108" t="s">
+      <c r="T8" s="148"/>
+      <c r="U8" s="147" t="s">
         <v>116</v>
       </c>
-      <c r="V8" s="109"/>
-      <c r="W8" s="98"/>
-      <c r="X8" s="110"/>
-      <c r="Y8" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z8" s="109"/>
-      <c r="AA8" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB8" s="107"/>
-      <c r="AC8" s="79" t="s">
+      <c r="V8" s="148"/>
+      <c r="W8" s="137"/>
+      <c r="X8" s="149"/>
+      <c r="Y8" s="147" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z8" s="148"/>
+      <c r="AA8" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB8" s="146"/>
+      <c r="AC8" s="118" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="true">
-      <c r="A9" s="103" t="s">
+      <c r="A9" s="142" t="s">
         <v>117</v>
       </c>
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="130" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="91" t="s">
+      <c r="C9" s="130" t="s">
         <v>119</v>
       </c>
-      <c r="D9" s="93" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="93" t="s">
+      <c r="D9" s="132" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" s="132" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="93" t="s">
+      <c r="F9" s="132" t="s">
         <v>120</v>
       </c>
-      <c r="G9" s="104" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="105"/>
-      <c r="I9" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="107"/>
-      <c r="K9" s="104" t="s">
+      <c r="G9" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="144"/>
+      <c r="I9" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="146"/>
+      <c r="K9" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="105"/>
-      <c r="M9" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="N9" s="107"/>
-      <c r="O9" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="P9" s="107"/>
-      <c r="Q9" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="R9" s="107"/>
-      <c r="S9" s="108" t="s">
+      <c r="L9" s="144"/>
+      <c r="M9" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="146"/>
+      <c r="O9" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" s="146"/>
+      <c r="Q9" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="R9" s="146"/>
+      <c r="S9" s="147" t="s">
         <v>121</v>
       </c>
-      <c r="T9" s="109"/>
-      <c r="U9" s="108" t="s">
+      <c r="T9" s="148"/>
+      <c r="U9" s="147" t="s">
         <v>121</v>
       </c>
-      <c r="V9" s="109"/>
-      <c r="W9" s="98"/>
-      <c r="X9" s="110"/>
-      <c r="Y9" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z9" s="109"/>
-      <c r="AA9" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB9" s="107"/>
-      <c r="AC9" s="79" t="s">
+      <c r="V9" s="148"/>
+      <c r="W9" s="137"/>
+      <c r="X9" s="149"/>
+      <c r="Y9" s="147" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z9" s="148"/>
+      <c r="AA9" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB9" s="146"/>
+      <c r="AC9" s="118" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="true">
-      <c r="A10" s="103" t="s">
+      <c r="A10" s="142" t="s">
         <v>122</v>
       </c>
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="130" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="91" t="s">
+      <c r="C10" s="130" t="s">
         <v>124</v>
       </c>
-      <c r="D10" s="93" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="93" t="s">
+      <c r="D10" s="132" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="132" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="93" t="s">
+      <c r="F10" s="132" t="s">
         <v>92</v>
       </c>
-      <c r="G10" s="104" t="s">
+      <c r="G10" s="143" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="105"/>
-      <c r="I10" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="107"/>
-      <c r="K10" s="104" t="s">
+      <c r="H10" s="144"/>
+      <c r="I10" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="146"/>
+      <c r="K10" s="143" t="s">
         <v>59</v>
       </c>
-      <c r="L10" s="105"/>
-      <c r="M10" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="N10" s="107"/>
-      <c r="O10" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="P10" s="107"/>
-      <c r="Q10" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="R10" s="107"/>
-      <c r="S10" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="T10" s="109"/>
-      <c r="U10" s="108" t="s">
+      <c r="L10" s="144"/>
+      <c r="M10" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="146"/>
+      <c r="O10" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" s="146"/>
+      <c r="Q10" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="R10" s="146"/>
+      <c r="S10" s="147" t="s">
+        <v>29</v>
+      </c>
+      <c r="T10" s="148"/>
+      <c r="U10" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="V10" s="109"/>
-      <c r="W10" s="98"/>
-      <c r="X10" s="110"/>
-      <c r="Y10" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z10" s="109"/>
-      <c r="AA10" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB10" s="107"/>
-      <c r="AC10" s="79" t="s">
+      <c r="V10" s="148"/>
+      <c r="W10" s="137"/>
+      <c r="X10" s="149"/>
+      <c r="Y10" s="147" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z10" s="148"/>
+      <c r="AA10" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB10" s="146"/>
+      <c r="AC10" s="118" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="true">
-      <c r="A11" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="104" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="105"/>
-      <c r="I11" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" s="107"/>
-      <c r="K11" s="104" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" s="105"/>
-      <c r="M11" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="N11" s="107"/>
-      <c r="O11" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="P11" s="107"/>
-      <c r="Q11" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="R11" s="107"/>
-      <c r="S11" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="T11" s="109"/>
-      <c r="U11" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="V11" s="109"/>
-      <c r="W11" s="98"/>
-      <c r="X11" s="110"/>
-      <c r="Y11" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z11" s="109"/>
-      <c r="AA11" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB11" s="107"/>
-      <c r="AC11" s="79" t="s">
+      <c r="A11" s="142" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="130" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="130" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="144"/>
+      <c r="I11" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="146"/>
+      <c r="K11" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="144"/>
+      <c r="M11" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="146"/>
+      <c r="O11" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" s="146"/>
+      <c r="Q11" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="R11" s="146"/>
+      <c r="S11" s="147" t="s">
+        <v>29</v>
+      </c>
+      <c r="T11" s="148"/>
+      <c r="U11" s="147" t="s">
+        <v>29</v>
+      </c>
+      <c r="V11" s="148"/>
+      <c r="W11" s="137"/>
+      <c r="X11" s="149"/>
+      <c r="Y11" s="147" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z11" s="148"/>
+      <c r="AA11" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB11" s="146"/>
+      <c r="AC11" s="118" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="true">
-      <c r="A12" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="104" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="105"/>
-      <c r="I12" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="107"/>
-      <c r="K12" s="104" t="s">
-        <v>29</v>
-      </c>
-      <c r="L12" s="105"/>
-      <c r="M12" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="N12" s="107"/>
-      <c r="O12" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="P12" s="107"/>
-      <c r="Q12" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="R12" s="107"/>
-      <c r="S12" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="T12" s="109"/>
-      <c r="U12" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="V12" s="109"/>
-      <c r="W12" s="98"/>
-      <c r="X12" s="110"/>
-      <c r="Y12" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z12" s="109"/>
-      <c r="AA12" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB12" s="107"/>
-      <c r="AC12" s="79" t="s">
+      <c r="A12" s="142" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="130" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="130" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="144"/>
+      <c r="I12" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="146"/>
+      <c r="K12" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="144"/>
+      <c r="M12" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" s="146"/>
+      <c r="O12" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" s="146"/>
+      <c r="Q12" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="R12" s="146"/>
+      <c r="S12" s="147" t="s">
+        <v>29</v>
+      </c>
+      <c r="T12" s="148"/>
+      <c r="U12" s="147" t="s">
+        <v>29</v>
+      </c>
+      <c r="V12" s="148"/>
+      <c r="W12" s="137"/>
+      <c r="X12" s="149"/>
+      <c r="Y12" s="147" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z12" s="148"/>
+      <c r="AA12" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB12" s="146"/>
+      <c r="AC12" s="118" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="true">
-      <c r="A13" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="104" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="105"/>
-      <c r="I13" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="107"/>
-      <c r="K13" s="104" t="s">
-        <v>29</v>
-      </c>
-      <c r="L13" s="105"/>
-      <c r="M13" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="N13" s="107"/>
-      <c r="O13" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="P13" s="107"/>
-      <c r="Q13" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="R13" s="107"/>
-      <c r="S13" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="T13" s="109"/>
-      <c r="U13" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="V13" s="109"/>
-      <c r="W13" s="98"/>
-      <c r="X13" s="110"/>
-      <c r="Y13" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z13" s="109"/>
-      <c r="AA13" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB13" s="107"/>
-      <c r="AC13" s="79" t="s">
+      <c r="A13" s="142" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="130" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="130" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="144"/>
+      <c r="I13" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="146"/>
+      <c r="K13" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="144"/>
+      <c r="M13" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="N13" s="146"/>
+      <c r="O13" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" s="146"/>
+      <c r="Q13" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="R13" s="146"/>
+      <c r="S13" s="147" t="s">
+        <v>29</v>
+      </c>
+      <c r="T13" s="148"/>
+      <c r="U13" s="147" t="s">
+        <v>29</v>
+      </c>
+      <c r="V13" s="148"/>
+      <c r="W13" s="137"/>
+      <c r="X13" s="149"/>
+      <c r="Y13" s="147" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z13" s="148"/>
+      <c r="AA13" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB13" s="146"/>
+      <c r="AC13" s="118" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="true">
-      <c r="A14" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="104" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="105"/>
-      <c r="I14" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" s="107"/>
-      <c r="K14" s="104" t="s">
-        <v>29</v>
-      </c>
-      <c r="L14" s="105"/>
-      <c r="M14" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="N14" s="107"/>
-      <c r="O14" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="P14" s="107"/>
-      <c r="Q14" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="R14" s="107"/>
-      <c r="S14" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="T14" s="109"/>
-      <c r="U14" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="V14" s="109"/>
-      <c r="W14" s="98"/>
-      <c r="X14" s="110"/>
-      <c r="Y14" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z14" s="109"/>
-      <c r="AA14" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB14" s="107"/>
-      <c r="AC14" s="79" t="s">
+      <c r="A14" s="142" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="130" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="130" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="144"/>
+      <c r="I14" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="146"/>
+      <c r="K14" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" s="144"/>
+      <c r="M14" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="N14" s="146"/>
+      <c r="O14" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" s="146"/>
+      <c r="Q14" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="R14" s="146"/>
+      <c r="S14" s="147" t="s">
+        <v>29</v>
+      </c>
+      <c r="T14" s="148"/>
+      <c r="U14" s="147" t="s">
+        <v>29</v>
+      </c>
+      <c r="V14" s="148"/>
+      <c r="W14" s="137"/>
+      <c r="X14" s="149"/>
+      <c r="Y14" s="147" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z14" s="148"/>
+      <c r="AA14" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB14" s="146"/>
+      <c r="AC14" s="118" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="true">
-      <c r="A15" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="104" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="105"/>
-      <c r="I15" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="J15" s="107"/>
-      <c r="K15" s="104" t="s">
-        <v>29</v>
-      </c>
-      <c r="L15" s="105"/>
-      <c r="M15" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="N15" s="107"/>
-      <c r="O15" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="P15" s="107"/>
-      <c r="Q15" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="R15" s="107"/>
-      <c r="S15" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="T15" s="109"/>
-      <c r="U15" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="V15" s="109"/>
-      <c r="W15" s="98"/>
-      <c r="X15" s="110"/>
-      <c r="Y15" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z15" s="109"/>
-      <c r="AA15" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB15" s="107"/>
-      <c r="AC15" s="79" t="s">
+      <c r="A15" s="142" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="130" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="130" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="144"/>
+      <c r="I15" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="146"/>
+      <c r="K15" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" s="144"/>
+      <c r="M15" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15" s="146"/>
+      <c r="O15" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="P15" s="146"/>
+      <c r="Q15" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="R15" s="146"/>
+      <c r="S15" s="147" t="s">
+        <v>29</v>
+      </c>
+      <c r="T15" s="148"/>
+      <c r="U15" s="147" t="s">
+        <v>29</v>
+      </c>
+      <c r="V15" s="148"/>
+      <c r="W15" s="137"/>
+      <c r="X15" s="149"/>
+      <c r="Y15" s="147" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z15" s="148"/>
+      <c r="AA15" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB15" s="146"/>
+      <c r="AC15" s="118" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="true">
-      <c r="A16" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="104" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="105"/>
-      <c r="I16" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="J16" s="107"/>
-      <c r="K16" s="104" t="s">
-        <v>29</v>
-      </c>
-      <c r="L16" s="105"/>
-      <c r="M16" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="N16" s="107"/>
-      <c r="O16" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="P16" s="107"/>
-      <c r="Q16" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="R16" s="107"/>
-      <c r="S16" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="T16" s="109"/>
-      <c r="U16" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="V16" s="109"/>
-      <c r="W16" s="98"/>
-      <c r="X16" s="110"/>
-      <c r="Y16" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z16" s="109"/>
-      <c r="AA16" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB16" s="107"/>
-      <c r="AC16" s="79" t="s">
+      <c r="A16" s="142" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="130" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="130" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="144"/>
+      <c r="I16" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="146"/>
+      <c r="K16" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" s="144"/>
+      <c r="M16" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="N16" s="146"/>
+      <c r="O16" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="P16" s="146"/>
+      <c r="Q16" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="R16" s="146"/>
+      <c r="S16" s="147" t="s">
+        <v>29</v>
+      </c>
+      <c r="T16" s="148"/>
+      <c r="U16" s="147" t="s">
+        <v>29</v>
+      </c>
+      <c r="V16" s="148"/>
+      <c r="W16" s="137"/>
+      <c r="X16" s="149"/>
+      <c r="Y16" s="147" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z16" s="148"/>
+      <c r="AA16" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB16" s="146"/>
+      <c r="AC16" s="118" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="true">
-      <c r="A17" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="104" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="105"/>
-      <c r="I17" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="J17" s="107"/>
-      <c r="K17" s="104" t="s">
-        <v>29</v>
-      </c>
-      <c r="L17" s="105"/>
-      <c r="M17" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="N17" s="107"/>
-      <c r="O17" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="P17" s="107"/>
-      <c r="Q17" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="R17" s="107"/>
-      <c r="S17" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="T17" s="109"/>
-      <c r="U17" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="V17" s="109"/>
-      <c r="W17" s="98"/>
-      <c r="X17" s="110"/>
-      <c r="Y17" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z17" s="109"/>
-      <c r="AA17" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB17" s="107"/>
-      <c r="AC17" s="79" t="s">
+      <c r="A17" s="142" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="130" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="130" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="144"/>
+      <c r="I17" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="146"/>
+      <c r="K17" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="L17" s="144"/>
+      <c r="M17" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="N17" s="146"/>
+      <c r="O17" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="P17" s="146"/>
+      <c r="Q17" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="R17" s="146"/>
+      <c r="S17" s="147" t="s">
+        <v>29</v>
+      </c>
+      <c r="T17" s="148"/>
+      <c r="U17" s="147" t="s">
+        <v>29</v>
+      </c>
+      <c r="V17" s="148"/>
+      <c r="W17" s="137"/>
+      <c r="X17" s="149"/>
+      <c r="Y17" s="147" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z17" s="148"/>
+      <c r="AA17" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB17" s="146"/>
+      <c r="AC17" s="118" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="true">
-      <c r="A18" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="104" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="105"/>
-      <c r="I18" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" s="107"/>
-      <c r="K18" s="104" t="s">
-        <v>29</v>
-      </c>
-      <c r="L18" s="105"/>
-      <c r="M18" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="N18" s="107"/>
-      <c r="O18" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="P18" s="107"/>
-      <c r="Q18" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="R18" s="107"/>
-      <c r="S18" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="T18" s="109"/>
-      <c r="U18" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="V18" s="109"/>
-      <c r="W18" s="98"/>
-      <c r="X18" s="110"/>
-      <c r="Y18" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z18" s="109"/>
-      <c r="AA18" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB18" s="107"/>
-      <c r="AC18" s="79" t="s">
+      <c r="A18" s="142" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="130" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="130" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="144"/>
+      <c r="I18" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="146"/>
+      <c r="K18" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18" s="144"/>
+      <c r="M18" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="N18" s="146"/>
+      <c r="O18" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="P18" s="146"/>
+      <c r="Q18" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="R18" s="146"/>
+      <c r="S18" s="147" t="s">
+        <v>29</v>
+      </c>
+      <c r="T18" s="148"/>
+      <c r="U18" s="147" t="s">
+        <v>29</v>
+      </c>
+      <c r="V18" s="148"/>
+      <c r="W18" s="137"/>
+      <c r="X18" s="149"/>
+      <c r="Y18" s="147" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z18" s="148"/>
+      <c r="AA18" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB18" s="146"/>
+      <c r="AC18" s="118" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="true">
-      <c r="A19" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="104" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="105"/>
-      <c r="I19" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" s="107"/>
-      <c r="K19" s="104" t="s">
-        <v>29</v>
-      </c>
-      <c r="L19" s="105"/>
-      <c r="M19" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="N19" s="107"/>
-      <c r="O19" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="P19" s="107"/>
-      <c r="Q19" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="R19" s="107"/>
-      <c r="S19" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="T19" s="109"/>
-      <c r="U19" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="V19" s="109"/>
-      <c r="W19" s="98"/>
-      <c r="X19" s="110"/>
-      <c r="Y19" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z19" s="109"/>
-      <c r="AA19" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB19" s="107"/>
-      <c r="AC19" s="79" t="s">
+      <c r="A19" s="142" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="130" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="130" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="144"/>
+      <c r="I19" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="146"/>
+      <c r="K19" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="L19" s="144"/>
+      <c r="M19" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="N19" s="146"/>
+      <c r="O19" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="P19" s="146"/>
+      <c r="Q19" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="R19" s="146"/>
+      <c r="S19" s="147" t="s">
+        <v>29</v>
+      </c>
+      <c r="T19" s="148"/>
+      <c r="U19" s="147" t="s">
+        <v>29</v>
+      </c>
+      <c r="V19" s="148"/>
+      <c r="W19" s="137"/>
+      <c r="X19" s="149"/>
+      <c r="Y19" s="147" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z19" s="148"/>
+      <c r="AA19" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB19" s="146"/>
+      <c r="AC19" s="118" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="true">
-      <c r="A20" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="104" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" s="105"/>
-      <c r="I20" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="J20" s="107"/>
-      <c r="K20" s="104" t="s">
-        <v>29</v>
-      </c>
-      <c r="L20" s="105"/>
-      <c r="M20" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="N20" s="107"/>
-      <c r="O20" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="P20" s="107"/>
-      <c r="Q20" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="R20" s="107"/>
-      <c r="S20" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="T20" s="109"/>
-      <c r="U20" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="V20" s="109"/>
-      <c r="W20" s="98"/>
-      <c r="X20" s="110"/>
-      <c r="Y20" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z20" s="109"/>
-      <c r="AA20" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB20" s="107"/>
-      <c r="AC20" s="79" t="s">
+      <c r="A20" s="142" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="130" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="130" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="144"/>
+      <c r="I20" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="146"/>
+      <c r="K20" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" s="144"/>
+      <c r="M20" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="N20" s="146"/>
+      <c r="O20" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="P20" s="146"/>
+      <c r="Q20" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="R20" s="146"/>
+      <c r="S20" s="147" t="s">
+        <v>29</v>
+      </c>
+      <c r="T20" s="148"/>
+      <c r="U20" s="147" t="s">
+        <v>29</v>
+      </c>
+      <c r="V20" s="148"/>
+      <c r="W20" s="137"/>
+      <c r="X20" s="149"/>
+      <c r="Y20" s="147" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z20" s="148"/>
+      <c r="AA20" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB20" s="146"/>
+      <c r="AC20" s="118" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="true">
-      <c r="A21" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="104" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" s="105"/>
-      <c r="I21" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21" s="107"/>
-      <c r="K21" s="104" t="s">
-        <v>29</v>
-      </c>
-      <c r="L21" s="105"/>
-      <c r="M21" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="N21" s="107"/>
-      <c r="O21" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="P21" s="107"/>
-      <c r="Q21" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="R21" s="107"/>
-      <c r="S21" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="T21" s="109"/>
-      <c r="U21" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="V21" s="109"/>
-      <c r="W21" s="98"/>
-      <c r="X21" s="110"/>
-      <c r="Y21" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z21" s="109"/>
-      <c r="AA21" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB21" s="107"/>
-      <c r="AC21" s="79" t="s">
+      <c r="A21" s="142" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="130" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="130" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="144"/>
+      <c r="I21" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="146"/>
+      <c r="K21" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="L21" s="144"/>
+      <c r="M21" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="N21" s="146"/>
+      <c r="O21" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="P21" s="146"/>
+      <c r="Q21" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="R21" s="146"/>
+      <c r="S21" s="147" t="s">
+        <v>29</v>
+      </c>
+      <c r="T21" s="148"/>
+      <c r="U21" s="147" t="s">
+        <v>29</v>
+      </c>
+      <c r="V21" s="148"/>
+      <c r="W21" s="137"/>
+      <c r="X21" s="149"/>
+      <c r="Y21" s="147" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z21" s="148"/>
+      <c r="AA21" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB21" s="146"/>
+      <c r="AC21" s="118" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="true">
-      <c r="A22" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="104" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" s="105"/>
-      <c r="I22" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="J22" s="107"/>
-      <c r="K22" s="104" t="s">
-        <v>29</v>
-      </c>
-      <c r="L22" s="105"/>
-      <c r="M22" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="N22" s="107"/>
-      <c r="O22" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="P22" s="107"/>
-      <c r="Q22" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="R22" s="107"/>
-      <c r="S22" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="T22" s="109"/>
-      <c r="U22" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="V22" s="109"/>
-      <c r="W22" s="98"/>
-      <c r="X22" s="110"/>
-      <c r="Y22" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z22" s="109"/>
-      <c r="AA22" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB22" s="107"/>
-      <c r="AC22" s="79" t="s">
+      <c r="A22" s="142" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="130" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="130" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="144"/>
+      <c r="I22" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" s="146"/>
+      <c r="K22" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22" s="144"/>
+      <c r="M22" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="N22" s="146"/>
+      <c r="O22" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="P22" s="146"/>
+      <c r="Q22" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="R22" s="146"/>
+      <c r="S22" s="147" t="s">
+        <v>29</v>
+      </c>
+      <c r="T22" s="148"/>
+      <c r="U22" s="147" t="s">
+        <v>29</v>
+      </c>
+      <c r="V22" s="148"/>
+      <c r="W22" s="137"/>
+      <c r="X22" s="149"/>
+      <c r="Y22" s="147" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z22" s="148"/>
+      <c r="AA22" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB22" s="146"/>
+      <c r="AC22" s="118" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="true">
-      <c r="A23" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="104" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="105"/>
-      <c r="I23" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="J23" s="107"/>
-      <c r="K23" s="104" t="s">
-        <v>29</v>
-      </c>
-      <c r="L23" s="105"/>
-      <c r="M23" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="N23" s="107"/>
-      <c r="O23" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="P23" s="107"/>
-      <c r="Q23" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="R23" s="107"/>
-      <c r="S23" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="T23" s="109"/>
-      <c r="U23" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="V23" s="109"/>
-      <c r="W23" s="98"/>
-      <c r="X23" s="110"/>
-      <c r="Y23" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z23" s="109"/>
-      <c r="AA23" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB23" s="107"/>
-      <c r="AC23" s="79" t="s">
+      <c r="A23" s="142" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="130" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="130" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="144"/>
+      <c r="I23" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="146"/>
+      <c r="K23" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="L23" s="144"/>
+      <c r="M23" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="N23" s="146"/>
+      <c r="O23" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="P23" s="146"/>
+      <c r="Q23" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="R23" s="146"/>
+      <c r="S23" s="147" t="s">
+        <v>29</v>
+      </c>
+      <c r="T23" s="148"/>
+      <c r="U23" s="147" t="s">
+        <v>29</v>
+      </c>
+      <c r="V23" s="148"/>
+      <c r="W23" s="137"/>
+      <c r="X23" s="149"/>
+      <c r="Y23" s="147" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z23" s="148"/>
+      <c r="AA23" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB23" s="146"/>
+      <c r="AC23" s="118" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="true">
-      <c r="A24" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" s="104" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" s="105"/>
-      <c r="I24" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="J24" s="107"/>
-      <c r="K24" s="104" t="s">
-        <v>29</v>
-      </c>
-      <c r="L24" s="105"/>
-      <c r="M24" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="N24" s="107"/>
-      <c r="O24" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="P24" s="107"/>
-      <c r="Q24" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="R24" s="107"/>
-      <c r="S24" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="T24" s="109"/>
-      <c r="U24" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="V24" s="109"/>
-      <c r="W24" s="98"/>
-      <c r="X24" s="110"/>
-      <c r="Y24" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z24" s="109"/>
-      <c r="AA24" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB24" s="107"/>
-      <c r="AC24" s="79" t="s">
+      <c r="A24" s="142" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="130" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="130" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="144"/>
+      <c r="I24" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="146"/>
+      <c r="K24" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="L24" s="144"/>
+      <c r="M24" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="N24" s="146"/>
+      <c r="O24" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="P24" s="146"/>
+      <c r="Q24" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="R24" s="146"/>
+      <c r="S24" s="147" t="s">
+        <v>29</v>
+      </c>
+      <c r="T24" s="148"/>
+      <c r="U24" s="147" t="s">
+        <v>29</v>
+      </c>
+      <c r="V24" s="148"/>
+      <c r="W24" s="137"/>
+      <c r="X24" s="149"/>
+      <c r="Y24" s="147" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z24" s="148"/>
+      <c r="AA24" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB24" s="146"/>
+      <c r="AC24" s="118" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="true">
-      <c r="A25" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" s="104" t="s">
-        <v>29</v>
-      </c>
-      <c r="H25" s="105"/>
-      <c r="I25" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="J25" s="107"/>
-      <c r="K25" s="104" t="s">
-        <v>29</v>
-      </c>
-      <c r="L25" s="105"/>
-      <c r="M25" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="N25" s="107"/>
-      <c r="O25" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="P25" s="107"/>
-      <c r="Q25" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="R25" s="107"/>
-      <c r="S25" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="T25" s="109"/>
-      <c r="U25" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="V25" s="109"/>
-      <c r="W25" s="98"/>
-      <c r="X25" s="110"/>
-      <c r="Y25" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z25" s="109"/>
-      <c r="AA25" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB25" s="107"/>
-      <c r="AC25" s="79" t="s">
+      <c r="A25" s="142" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="130" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="130" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="144"/>
+      <c r="I25" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" s="146"/>
+      <c r="K25" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="L25" s="144"/>
+      <c r="M25" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="N25" s="146"/>
+      <c r="O25" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="P25" s="146"/>
+      <c r="Q25" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="R25" s="146"/>
+      <c r="S25" s="147" t="s">
+        <v>29</v>
+      </c>
+      <c r="T25" s="148"/>
+      <c r="U25" s="147" t="s">
+        <v>29</v>
+      </c>
+      <c r="V25" s="148"/>
+      <c r="W25" s="137"/>
+      <c r="X25" s="149"/>
+      <c r="Y25" s="147" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z25" s="148"/>
+      <c r="AA25" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB25" s="146"/>
+      <c r="AC25" s="118" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="true">
-      <c r="A26" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26" s="104" t="s">
-        <v>29</v>
-      </c>
-      <c r="H26" s="105"/>
-      <c r="I26" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="J26" s="107"/>
-      <c r="K26" s="104" t="s">
-        <v>29</v>
-      </c>
-      <c r="L26" s="105"/>
-      <c r="M26" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="N26" s="107"/>
-      <c r="O26" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="P26" s="107"/>
-      <c r="Q26" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="R26" s="107"/>
-      <c r="S26" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="T26" s="109"/>
-      <c r="U26" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="V26" s="109"/>
-      <c r="W26" s="98"/>
-      <c r="X26" s="110"/>
-      <c r="Y26" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z26" s="109"/>
-      <c r="AA26" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB26" s="107"/>
-      <c r="AC26" s="79" t="s">
+      <c r="A26" s="142" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="130" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="130" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="144"/>
+      <c r="I26" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" s="146"/>
+      <c r="K26" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="L26" s="144"/>
+      <c r="M26" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="N26" s="146"/>
+      <c r="O26" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="P26" s="146"/>
+      <c r="Q26" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="R26" s="146"/>
+      <c r="S26" s="147" t="s">
+        <v>29</v>
+      </c>
+      <c r="T26" s="148"/>
+      <c r="U26" s="147" t="s">
+        <v>29</v>
+      </c>
+      <c r="V26" s="148"/>
+      <c r="W26" s="137"/>
+      <c r="X26" s="149"/>
+      <c r="Y26" s="147" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z26" s="148"/>
+      <c r="AA26" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB26" s="146"/>
+      <c r="AC26" s="118" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="true">
-      <c r="A27" s="111"/>
-      <c r="B27" s="112"/>
-      <c r="C27" s="112"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="93" t="s">
+      <c r="A27" s="150"/>
+      <c r="B27" s="151"/>
+      <c r="C27" s="151"/>
+      <c r="D27" s="151"/>
+      <c r="E27" s="151"/>
+      <c r="F27" s="132" t="s">
         <v>60</v>
       </c>
-      <c r="G27" s="104" t="s">
+      <c r="G27" s="143" t="s">
         <v>59</v>
       </c>
-      <c r="H27" s="105"/>
-      <c r="I27" s="104" t="s">
+      <c r="H27" s="144"/>
+      <c r="I27" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="J27" s="105"/>
-      <c r="K27" s="104" t="s">
+      <c r="J27" s="144"/>
+      <c r="K27" s="143" t="s">
         <v>59</v>
       </c>
-      <c r="L27" s="105"/>
-      <c r="M27" s="104" t="s">
+      <c r="L27" s="144"/>
+      <c r="M27" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="N27" s="105"/>
-      <c r="O27" s="106" t="s">
+      <c r="N27" s="144"/>
+      <c r="O27" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="P27" s="107"/>
-      <c r="Q27" s="106" t="s">
+      <c r="P27" s="146"/>
+      <c r="Q27" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="R27" s="107"/>
-      <c r="S27" s="104" t="s">
+      <c r="R27" s="146"/>
+      <c r="S27" s="143" t="s">
         <v>125</v>
       </c>
-      <c r="T27" s="105"/>
-      <c r="U27" s="104" t="s">
+      <c r="T27" s="144"/>
+      <c r="U27" s="143" t="s">
         <v>125</v>
       </c>
-      <c r="V27" s="105"/>
-      <c r="W27" s="106"/>
-      <c r="X27" s="107"/>
-      <c r="Y27" s="104" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z27" s="105"/>
-      <c r="AA27" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB27" s="107"/>
-      <c r="AC27" s="93"/>
+      <c r="V27" s="144"/>
+      <c r="W27" s="145"/>
+      <c r="X27" s="146"/>
+      <c r="Y27" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z27" s="144"/>
+      <c r="AA27" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB27" s="146"/>
+      <c r="AC27" s="132"/>
     </row>
     <row r="28" ht="23.25" customHeight="true">
-      <c r="A28" s="111"/>
-      <c r="B28" s="112"/>
-      <c r="C28" s="112"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="113" t="s">
+      <c r="A28" s="150"/>
+      <c r="B28" s="151"/>
+      <c r="C28" s="151"/>
+      <c r="D28" s="151"/>
+      <c r="E28" s="151"/>
+      <c r="F28" s="152" t="s">
         <v>62</v>
       </c>
-      <c r="G28" s="104" t="s">
+      <c r="G28" s="143" t="s">
         <v>94</v>
       </c>
-      <c r="H28" s="105"/>
-      <c r="I28" s="104" t="s">
+      <c r="H28" s="144"/>
+      <c r="I28" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="105"/>
-      <c r="K28" s="104" t="s">
+      <c r="J28" s="144"/>
+      <c r="K28" s="143" t="s">
         <v>94</v>
       </c>
-      <c r="L28" s="105"/>
-      <c r="M28" s="104" t="s">
+      <c r="L28" s="144"/>
+      <c r="M28" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="N28" s="105"/>
-      <c r="O28" s="106" t="s">
+      <c r="N28" s="144"/>
+      <c r="O28" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="P28" s="107"/>
-      <c r="Q28" s="106" t="s">
+      <c r="P28" s="146"/>
+      <c r="Q28" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="R28" s="107"/>
-      <c r="S28" s="104" t="s">
+      <c r="R28" s="146"/>
+      <c r="S28" s="143" t="s">
         <v>95</v>
       </c>
-      <c r="T28" s="105"/>
-      <c r="U28" s="104" t="s">
+      <c r="T28" s="144"/>
+      <c r="U28" s="143" t="s">
         <v>95</v>
       </c>
-      <c r="V28" s="105"/>
-      <c r="W28" s="106"/>
-      <c r="X28" s="107"/>
-      <c r="Y28" s="104" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z28" s="105"/>
-      <c r="AA28" s="106" t="s">
+      <c r="V28" s="144"/>
+      <c r="W28" s="145"/>
+      <c r="X28" s="146"/>
+      <c r="Y28" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z28" s="144"/>
+      <c r="AA28" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="AB28" s="107"/>
-      <c r="AC28" s="93"/>
+      <c r="AB28" s="146"/>
+      <c r="AC28" s="132"/>
     </row>
     <row r="29" ht="14.25" customHeight="true">
-      <c r="A29" s="111"/>
-      <c r="B29" s="112"/>
-      <c r="C29" s="112"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="93" t="s">
+      <c r="A29" s="150"/>
+      <c r="B29" s="151"/>
+      <c r="C29" s="151"/>
+      <c r="D29" s="151"/>
+      <c r="E29" s="151"/>
+      <c r="F29" s="132" t="s">
         <v>63</v>
       </c>
-      <c r="G29" s="104" t="s">
+      <c r="G29" s="143" t="s">
         <v>126</v>
       </c>
-      <c r="H29" s="105"/>
-      <c r="I29" s="104" t="s">
+      <c r="H29" s="144"/>
+      <c r="I29" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="J29" s="105"/>
-      <c r="K29" s="104" t="s">
+      <c r="J29" s="144"/>
+      <c r="K29" s="143" t="s">
         <v>126</v>
       </c>
-      <c r="L29" s="105"/>
-      <c r="M29" s="104" t="s">
+      <c r="L29" s="144"/>
+      <c r="M29" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="N29" s="105"/>
-      <c r="O29" s="106" t="s">
+      <c r="N29" s="144"/>
+      <c r="O29" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="106" t="s">
+      <c r="P29" s="146"/>
+      <c r="Q29" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="R29" s="107"/>
-      <c r="S29" s="104" t="s">
+      <c r="R29" s="146"/>
+      <c r="S29" s="143" t="s">
         <v>127</v>
       </c>
-      <c r="T29" s="105"/>
-      <c r="U29" s="104" t="s">
+      <c r="T29" s="144"/>
+      <c r="U29" s="143" t="s">
         <v>127</v>
       </c>
-      <c r="V29" s="105"/>
-      <c r="W29" s="106"/>
-      <c r="X29" s="107"/>
-      <c r="Y29" s="104" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z29" s="105"/>
-      <c r="AA29" s="106" t="s">
+      <c r="V29" s="144"/>
+      <c r="W29" s="145"/>
+      <c r="X29" s="146"/>
+      <c r="Y29" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z29" s="144"/>
+      <c r="AA29" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="AB29" s="107"/>
-      <c r="AC29" s="93"/>
+      <c r="AB29" s="146"/>
+      <c r="AC29" s="132"/>
     </row>
     <row r="30" ht="14.25" customHeight="true">
-      <c r="A30" s="114" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="115"/>
-      <c r="C30" s="116"/>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="115"/>
-      <c r="H30" s="115"/>
-      <c r="I30" s="115"/>
-      <c r="J30" s="115"/>
-      <c r="K30" s="115"/>
-      <c r="L30" s="115"/>
-      <c r="M30" s="115"/>
-      <c r="N30" s="115"/>
-      <c r="O30" s="115"/>
-      <c r="P30" s="115"/>
-      <c r="Q30" s="115"/>
-      <c r="R30" s="115"/>
-      <c r="S30" s="115"/>
-      <c r="T30" s="115"/>
-      <c r="U30" s="115"/>
-      <c r="V30" s="115"/>
-      <c r="W30" s="115"/>
-      <c r="X30" s="115"/>
-      <c r="Y30" s="115"/>
-      <c r="Z30" s="115"/>
-      <c r="AA30" s="115"/>
-      <c r="AB30" s="115"/>
-      <c r="AC30" s="117"/>
+      <c r="A30" s="153" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="154"/>
+      <c r="C30" s="155"/>
+      <c r="D30" s="154"/>
+      <c r="E30" s="154"/>
+      <c r="F30" s="154"/>
+      <c r="G30" s="154"/>
+      <c r="H30" s="154"/>
+      <c r="I30" s="154"/>
+      <c r="J30" s="154"/>
+      <c r="K30" s="154"/>
+      <c r="L30" s="154"/>
+      <c r="M30" s="154"/>
+      <c r="N30" s="154"/>
+      <c r="O30" s="154"/>
+      <c r="P30" s="154"/>
+      <c r="Q30" s="154"/>
+      <c r="R30" s="154"/>
+      <c r="S30" s="154"/>
+      <c r="T30" s="154"/>
+      <c r="U30" s="154"/>
+      <c r="V30" s="154"/>
+      <c r="W30" s="154"/>
+      <c r="X30" s="154"/>
+      <c r="Y30" s="154"/>
+      <c r="Z30" s="154"/>
+      <c r="AA30" s="154"/>
+      <c r="AB30" s="154"/>
+      <c r="AC30" s="156"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/CreatedFiles/KPIR_2016_6793060742.xlsx
+++ b/CreatedFiles/KPIR_2016_6793060742.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="133">
   <si>
     <t>Lp</t>
   </si>
@@ -420,13 +420,286 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="157">
+  <fonts count="196">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="Czcionka tekstu podstawowego"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="9"/>
+      <main:color theme="1"/>
+      <main:name val="Tahoma"/>
+      <main:family val="2"/>
+      <main:charset val="238"/>
     </font>
     <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <main:sz val="9"/>
@@ -1681,7 +1954,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="196">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <main:alignment horizontal="center" vertical="center"/>
@@ -1956,97 +2229,188 @@
     <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="115" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="116" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="117" numFmtId="0" xfId="0"/>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="1" fillId="0" fontId="118" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="118" numFmtId="0" xfId="0">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="1" fillId="0" fontId="119" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="119" numFmtId="0" xfId="0">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="2" fillId="0" fontId="120" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="120" numFmtId="0" xfId="0">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="3" fillId="0" fontId="121" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="121" numFmtId="0" xfId="0">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="4" fillId="0" fontId="122" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="122" numFmtId="0" xfId="0">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="5" fillId="0" fontId="123" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="123" numFmtId="0" xfId="0">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="2" fillId="0" fontId="124" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="124" numFmtId="0" xfId="0">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="3" fillId="0" fontId="125" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="125" numFmtId="0" xfId="0">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="2" fillId="0" fontId="126" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="126" numFmtId="0" xfId="0">
       <main:alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="5" fillId="0" fontId="127" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="127" numFmtId="0" xfId="0">
       <main:alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="3" fillId="0" fontId="128" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="128" numFmtId="0" xfId="0">
       <main:alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="6" fillId="0" fontId="129" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="129" numFmtId="0" xfId="0">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="1" fillId="0" fontId="130" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="130" numFmtId="0" xfId="0">
       <main:alignment horizontal="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="7" fillId="0" fontId="131" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="131" numFmtId="0" xfId="0">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="true" applyFont="true" borderId="1" fillId="0" fontId="132" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
-    <xf applyBorder="true" applyFont="true" borderId="2" fillId="0" fontId="133" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
-    <xf applyBorder="true" applyFont="true" borderId="3" fillId="0" fontId="134" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
-    <xf applyBorder="true" applyFont="true" borderId="8" fillId="0" fontId="135" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
-    <xf applyBorder="true" applyFont="true" borderId="4" fillId="0" fontId="136" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="2" fillId="0" fontId="137" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="132" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="133" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="134" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="135" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="136" numFmtId="0" xfId="0"/>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="137" numFmtId="0" xfId="0">
       <main:alignment horizontal="center"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="5" fillId="0" fontId="138" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="138" numFmtId="0" xfId="0">
       <main:alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="true" applyFont="true" borderId="9" fillId="0" fontId="139" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="10" fillId="0" fontId="140" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+    <xf applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="139" numFmtId="0" xfId="0"/>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="140" numFmtId="0" xfId="0">
       <main:alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="true" applyFont="true" borderId="3" fillId="0" fontId="141" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="1" fillId="0" fontId="142" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+    <xf applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="141" numFmtId="0" xfId="0"/>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="142" numFmtId="0" xfId="0">
       <main:alignment horizontal="right"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="143" numFmtId="4" xfId="0" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="143" numFmtId="4" xfId="0">
       <main:alignment horizontal="right"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="144" numFmtId="4" xfId="0" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="144" numFmtId="4" xfId="0">
       <main:alignment horizontal="right"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="2" fillId="0" fontId="145" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="145" numFmtId="0" xfId="0">
       <main:alignment horizontal="right"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="3" fillId="0" fontId="146" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="146" numFmtId="0" xfId="0">
       <main:alignment horizontal="right"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="147" numFmtId="2" xfId="0" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="147" numFmtId="2" xfId="0">
       <main:alignment horizontal="right"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="148" numFmtId="2" xfId="0" applyFill="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="148" numFmtId="2" xfId="0">
       <main:alignment horizontal="right"/>
     </xf>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="3" fillId="0" fontId="149" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="149" numFmtId="0" xfId="0">
       <main:alignment horizontal="center"/>
     </xf>
-    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="150" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
-    <xf applyBorder="true" applyFont="true" borderId="0" fillId="0" fontId="151" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
-    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="1" fillId="0" fontId="152" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="150" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="151" numFmtId="0" xfId="0"/>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="152" numFmtId="0" xfId="0">
       <main:alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="true" applyFont="true" borderId="9" fillId="0" fontId="153" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
-    <xf applyBorder="true" applyFont="true" borderId="10" fillId="0" fontId="154" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
-    <xf applyBorder="true" borderId="10" fillId="0" fontId="155" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
-    <xf applyBorder="true" applyFont="true" borderId="12" fillId="0" fontId="156" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="153" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="154" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="155" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="156" numFmtId="0" xfId="0"/>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="1" fillId="0" fontId="157" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="1" fillId="0" fontId="158" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="2" fillId="0" fontId="159" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="3" fillId="0" fontId="160" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="4" fillId="0" fontId="161" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="5" fillId="0" fontId="162" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="2" fillId="0" fontId="163" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="3" fillId="0" fontId="164" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="2" fillId="0" fontId="165" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="5" fillId="0" fontId="166" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="3" fillId="0" fontId="167" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="6" fillId="0" fontId="168" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="1" fillId="0" fontId="169" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="7" fillId="0" fontId="170" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="1" fillId="0" fontId="171" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf applyBorder="true" applyFont="true" borderId="2" fillId="0" fontId="172" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf applyBorder="true" applyFont="true" borderId="3" fillId="0" fontId="173" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf applyBorder="true" applyFont="true" borderId="8" fillId="0" fontId="174" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf applyBorder="true" applyFont="true" borderId="4" fillId="0" fontId="175" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="2" fillId="0" fontId="176" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="5" fillId="0" fontId="177" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="true" applyFont="true" borderId="9" fillId="0" fontId="178" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="10" fillId="0" fontId="179" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="true" applyFont="true" borderId="3" fillId="0" fontId="180" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="1" fillId="0" fontId="181" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="right"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="182" numFmtId="4" xfId="0" applyFill="true">
+      <main:alignment horizontal="right"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="183" numFmtId="4" xfId="0" applyFill="true">
+      <main:alignment horizontal="right"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="2" fillId="0" fontId="184" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="right"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="3" fillId="0" fontId="185" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="right"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="186" numFmtId="2" xfId="0" applyFill="true">
+      <main:alignment horizontal="right"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="187" numFmtId="2" xfId="0" applyFill="true">
+      <main:alignment horizontal="right"/>
+    </xf>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="3" fillId="0" fontId="188" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="189" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf applyBorder="true" applyFont="true" borderId="0" fillId="0" fontId="190" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignment="1" applyBorder="true" applyFont="true" borderId="1" fillId="0" fontId="191" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true">
+      <main:alignment wrapText="1"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="9" fillId="0" fontId="192" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf applyBorder="true" applyFont="true" borderId="10" fillId="0" fontId="193" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
+    <xf applyBorder="true" borderId="10" fillId="0" fontId="194" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyBorder="true" applyFont="true" borderId="12" fillId="0" fontId="195" numFmtId="0" xfId="0" applyFill="true" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -6464,1866 +6828,1866 @@
   </cols>
   <sheetData>
     <row r="1" ht="124.5" customHeight="true">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="119" t="s">
+      <c r="B1" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="119" t="s">
+      <c r="C1" s="158" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="120" t="s">
+      <c r="D1" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="121"/>
-      <c r="F1" s="122" t="s">
+      <c r="E1" s="160"/>
+      <c r="F1" s="161" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="120" t="s">
+      <c r="G1" s="159" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="124" t="s">
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="125"/>
-      <c r="O1" s="124" t="s">
+      <c r="N1" s="164"/>
+      <c r="O1" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="120" t="s">
+      <c r="P1" s="164"/>
+      <c r="Q1" s="159" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="123"/>
-      <c r="S1" s="123"/>
-      <c r="T1" s="123"/>
-      <c r="U1" s="123"/>
-      <c r="V1" s="123"/>
-      <c r="W1" s="123"/>
-      <c r="X1" s="121"/>
-      <c r="Y1" s="126" t="s">
+      <c r="R1" s="162"/>
+      <c r="S1" s="162"/>
+      <c r="T1" s="162"/>
+      <c r="U1" s="162"/>
+      <c r="V1" s="162"/>
+      <c r="W1" s="162"/>
+      <c r="X1" s="160"/>
+      <c r="Y1" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="Z1" s="127"/>
-      <c r="AA1" s="127"/>
-      <c r="AB1" s="128"/>
-      <c r="AC1" s="118" t="s">
+      <c r="Z1" s="166"/>
+      <c r="AA1" s="166"/>
+      <c r="AB1" s="167"/>
+      <c r="AC1" s="157" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" ht="47.25" customHeight="true">
-      <c r="A2" s="118"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119" t="s">
+      <c r="A2" s="157"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="118" t="s">
+      <c r="E2" s="157" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="129"/>
-      <c r="G2" s="124" t="s">
+      <c r="F2" s="168"/>
+      <c r="G2" s="163" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="125"/>
-      <c r="I2" s="124" t="s">
+      <c r="H2" s="164"/>
+      <c r="I2" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="125"/>
-      <c r="K2" s="124" t="s">
+      <c r="J2" s="164"/>
+      <c r="K2" s="163" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="125"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
-      <c r="P2" s="119"/>
-      <c r="Q2" s="124" t="s">
+      <c r="L2" s="164"/>
+      <c r="M2" s="158"/>
+      <c r="N2" s="158"/>
+      <c r="O2" s="158"/>
+      <c r="P2" s="158"/>
+      <c r="Q2" s="163" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="125"/>
-      <c r="S2" s="124" t="s">
+      <c r="R2" s="164"/>
+      <c r="S2" s="163" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="125"/>
-      <c r="U2" s="124" t="s">
+      <c r="T2" s="164"/>
+      <c r="U2" s="163" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="125"/>
-      <c r="W2" s="130"/>
-      <c r="X2" s="130"/>
-      <c r="Y2" s="124" t="s">
+      <c r="V2" s="164"/>
+      <c r="W2" s="169"/>
+      <c r="X2" s="169"/>
+      <c r="Y2" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="Z2" s="125"/>
-      <c r="AA2" s="120" t="s">
+      <c r="Z2" s="164"/>
+      <c r="AA2" s="159" t="s">
         <v>20</v>
       </c>
-      <c r="AB2" s="121"/>
-      <c r="AC2" s="118"/>
+      <c r="AB2" s="160"/>
+      <c r="AC2" s="157"/>
     </row>
     <row r="3" ht="14.25" customHeight="true">
-      <c r="A3" s="118"/>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="132" t="s">
+      <c r="A3" s="157"/>
+      <c r="B3" s="158"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="171" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="132" t="s">
+      <c r="H3" s="171" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="132" t="s">
+      <c r="I3" s="171" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="132" t="s">
+      <c r="J3" s="171" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="132" t="s">
+      <c r="K3" s="171" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="132" t="s">
+      <c r="L3" s="171" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="132" t="s">
+      <c r="M3" s="171" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="132" t="s">
+      <c r="N3" s="171" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="132" t="s">
+      <c r="O3" s="171" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="132" t="s">
+      <c r="P3" s="171" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="132" t="s">
+      <c r="Q3" s="171" t="s">
         <v>21</v>
       </c>
-      <c r="R3" s="132" t="s">
+      <c r="R3" s="171" t="s">
         <v>22</v>
       </c>
-      <c r="S3" s="132" t="s">
+      <c r="S3" s="171" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="132" t="s">
+      <c r="T3" s="171" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="132" t="s">
+      <c r="U3" s="171" t="s">
         <v>21</v>
       </c>
-      <c r="V3" s="132" t="s">
+      <c r="V3" s="171" t="s">
         <v>22</v>
       </c>
-      <c r="W3" s="132" t="s">
+      <c r="W3" s="171" t="s">
         <v>21</v>
       </c>
-      <c r="X3" s="133" t="s">
+      <c r="X3" s="172" t="s">
         <v>22</v>
       </c>
-      <c r="Y3" s="133"/>
-      <c r="Z3" s="134"/>
-      <c r="AA3" s="135" t="s">
+      <c r="Y3" s="172"/>
+      <c r="Z3" s="173"/>
+      <c r="AA3" s="174" t="s">
         <v>21</v>
       </c>
-      <c r="AB3" s="136" t="s">
+      <c r="AB3" s="175" t="s">
         <v>22</v>
       </c>
-      <c r="AC3" s="118"/>
+      <c r="AC3" s="157"/>
     </row>
     <row r="4" ht="14.25" customHeight="true">
-      <c r="A4" s="130" t="n">
+      <c r="A4" s="169" t="n">
         <v>1.0</v>
       </c>
-      <c r="B4" s="130" t="n">
+      <c r="B4" s="169" t="n">
         <v>2.0</v>
       </c>
-      <c r="C4" s="130" t="n">
+      <c r="C4" s="169" t="n">
         <v>3.0</v>
       </c>
-      <c r="D4" s="130" t="n">
+      <c r="D4" s="169" t="n">
         <v>4.0</v>
       </c>
-      <c r="E4" s="130" t="n">
+      <c r="E4" s="169" t="n">
         <v>5.0</v>
       </c>
-      <c r="F4" s="130" t="n">
+      <c r="F4" s="169" t="n">
         <v>6.0</v>
       </c>
-      <c r="G4" s="130" t="n">
+      <c r="G4" s="169" t="n">
         <v>7.0</v>
       </c>
-      <c r="H4" s="130"/>
-      <c r="I4" s="130" t="n">
+      <c r="H4" s="169"/>
+      <c r="I4" s="169" t="n">
         <v>8.0</v>
       </c>
-      <c r="J4" s="130"/>
-      <c r="K4" s="130" t="n">
+      <c r="J4" s="169"/>
+      <c r="K4" s="169" t="n">
         <v>9.0</v>
       </c>
-      <c r="L4" s="130"/>
-      <c r="M4" s="130" t="n">
+      <c r="L4" s="169"/>
+      <c r="M4" s="169" t="n">
         <v>10.0</v>
       </c>
-      <c r="N4" s="130"/>
-      <c r="O4" s="130" t="n">
+      <c r="N4" s="169"/>
+      <c r="O4" s="169" t="n">
         <v>11.0</v>
       </c>
-      <c r="P4" s="130"/>
-      <c r="Q4" s="130" t="n">
+      <c r="P4" s="169"/>
+      <c r="Q4" s="169" t="n">
         <v>12.0</v>
       </c>
-      <c r="R4" s="130"/>
-      <c r="S4" s="130" t="n">
+      <c r="R4" s="169"/>
+      <c r="S4" s="169" t="n">
         <v>13.0</v>
       </c>
-      <c r="T4" s="130"/>
-      <c r="U4" s="130" t="n">
+      <c r="T4" s="169"/>
+      <c r="U4" s="169" t="n">
         <v>14.0</v>
       </c>
-      <c r="V4" s="130"/>
-      <c r="W4" s="137" t="n">
+      <c r="V4" s="169"/>
+      <c r="W4" s="176" t="n">
         <v>15.0</v>
       </c>
-      <c r="X4" s="138"/>
-      <c r="Y4" s="139"/>
-      <c r="Z4" s="140" t="n">
+      <c r="X4" s="177"/>
+      <c r="Y4" s="178"/>
+      <c r="Z4" s="179" t="n">
         <v>16.0</v>
       </c>
-      <c r="AA4" s="138"/>
-      <c r="AB4" s="141"/>
-      <c r="AC4" s="118" t="n">
+      <c r="AA4" s="177"/>
+      <c r="AB4" s="180"/>
+      <c r="AC4" s="157" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="true">
-      <c r="A5" s="142" t="s">
+      <c r="A5" s="181" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="130" t="s">
+      <c r="B5" s="169" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="130" t="s">
+      <c r="C5" s="169" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="132" t="s">
+      <c r="D5" s="171" t="s">
         <v>128</v>
       </c>
-      <c r="E5" s="132" t="s">
+      <c r="E5" s="171" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="132" t="s">
+      <c r="F5" s="171" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="143" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="144"/>
-      <c r="I5" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="146"/>
-      <c r="K5" s="143" t="s">
+      <c r="G5" s="182" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="183"/>
+      <c r="I5" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="185"/>
+      <c r="K5" s="182" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="144"/>
-      <c r="M5" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="146"/>
-      <c r="O5" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="P5" s="146"/>
-      <c r="Q5" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="R5" s="146"/>
-      <c r="S5" s="147" t="s">
+      <c r="L5" s="183"/>
+      <c r="M5" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="185"/>
+      <c r="O5" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="185"/>
+      <c r="Q5" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" s="185"/>
+      <c r="S5" s="186" t="s">
         <v>101</v>
       </c>
-      <c r="T5" s="148"/>
-      <c r="U5" s="147" t="s">
+      <c r="T5" s="187"/>
+      <c r="U5" s="186" t="s">
         <v>101</v>
       </c>
-      <c r="V5" s="148"/>
-      <c r="W5" s="137"/>
-      <c r="X5" s="149"/>
-      <c r="Y5" s="147" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z5" s="148"/>
-      <c r="AA5" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB5" s="146"/>
-      <c r="AC5" s="118" t="s">
+      <c r="V5" s="187"/>
+      <c r="W5" s="176"/>
+      <c r="X5" s="188"/>
+      <c r="Y5" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z5" s="187"/>
+      <c r="AA5" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB5" s="185"/>
+      <c r="AC5" s="157" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="true">
-      <c r="A6" s="142" t="s">
+      <c r="A6" s="181" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="130" t="s">
+      <c r="B6" s="169" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="130" t="s">
+      <c r="C6" s="169" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="132" t="s">
+      <c r="D6" s="171" t="s">
         <v>129</v>
       </c>
-      <c r="E6" s="132" t="s">
+      <c r="E6" s="171" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="132" t="s">
+      <c r="F6" s="171" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="143" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="144"/>
-      <c r="I6" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="146"/>
-      <c r="K6" s="143" t="s">
+      <c r="G6" s="182" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="183"/>
+      <c r="I6" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="185"/>
+      <c r="K6" s="182" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="144"/>
-      <c r="M6" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="146"/>
-      <c r="O6" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="P6" s="146"/>
-      <c r="Q6" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="R6" s="146"/>
-      <c r="S6" s="147" t="s">
+      <c r="L6" s="183"/>
+      <c r="M6" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="185"/>
+      <c r="O6" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="185"/>
+      <c r="Q6" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="185"/>
+      <c r="S6" s="186" t="s">
         <v>105</v>
       </c>
-      <c r="T6" s="148"/>
-      <c r="U6" s="147" t="s">
+      <c r="T6" s="187"/>
+      <c r="U6" s="186" t="s">
         <v>105</v>
       </c>
-      <c r="V6" s="148"/>
-      <c r="W6" s="137"/>
-      <c r="X6" s="149"/>
-      <c r="Y6" s="147" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z6" s="148"/>
-      <c r="AA6" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB6" s="146"/>
-      <c r="AC6" s="118" t="s">
+      <c r="V6" s="187"/>
+      <c r="W6" s="176"/>
+      <c r="X6" s="188"/>
+      <c r="Y6" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z6" s="187"/>
+      <c r="AA6" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB6" s="185"/>
+      <c r="AC6" s="157" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="true">
-      <c r="A7" s="142" t="s">
+      <c r="A7" s="181" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="130" t="s">
+      <c r="B7" s="169" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="130" t="s">
+      <c r="C7" s="169" t="s">
         <v>108</v>
       </c>
-      <c r="D7" s="132" t="s">
+      <c r="D7" s="171" t="s">
         <v>130</v>
       </c>
-      <c r="E7" s="132" t="s">
+      <c r="E7" s="171" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="132" t="s">
+      <c r="F7" s="171" t="s">
         <v>73</v>
       </c>
-      <c r="G7" s="143" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="144"/>
-      <c r="I7" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="146"/>
-      <c r="K7" s="143" t="s">
+      <c r="G7" s="182" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="183"/>
+      <c r="I7" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="185"/>
+      <c r="K7" s="182" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="144"/>
-      <c r="M7" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" s="146"/>
-      <c r="O7" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="P7" s="146"/>
-      <c r="Q7" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="R7" s="146"/>
-      <c r="S7" s="147" t="s">
+      <c r="L7" s="183"/>
+      <c r="M7" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="185"/>
+      <c r="O7" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="185"/>
+      <c r="Q7" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="R7" s="185"/>
+      <c r="S7" s="186" t="s">
         <v>109</v>
       </c>
-      <c r="T7" s="148"/>
-      <c r="U7" s="147" t="s">
+      <c r="T7" s="187"/>
+      <c r="U7" s="186" t="s">
         <v>109</v>
       </c>
-      <c r="V7" s="148"/>
-      <c r="W7" s="137"/>
-      <c r="X7" s="149"/>
-      <c r="Y7" s="147" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z7" s="148"/>
-      <c r="AA7" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB7" s="146"/>
-      <c r="AC7" s="118" t="s">
+      <c r="V7" s="187"/>
+      <c r="W7" s="176"/>
+      <c r="X7" s="188"/>
+      <c r="Y7" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z7" s="187"/>
+      <c r="AA7" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB7" s="185"/>
+      <c r="AC7" s="157" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="true">
-      <c r="A8" s="142" t="s">
+      <c r="A8" s="181" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="130" t="s">
+      <c r="B8" s="169" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="130" t="s">
+      <c r="C8" s="169" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="132" t="s">
+      <c r="D8" s="171" t="s">
         <v>113</v>
       </c>
-      <c r="E8" s="132" t="s">
+      <c r="E8" s="171" t="s">
         <v>114</v>
       </c>
-      <c r="F8" s="132" t="s">
+      <c r="F8" s="171" t="s">
         <v>115</v>
       </c>
-      <c r="G8" s="143" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="144"/>
-      <c r="I8" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="146"/>
-      <c r="K8" s="143" t="s">
+      <c r="G8" s="182" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="183"/>
+      <c r="I8" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="185"/>
+      <c r="K8" s="182" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="144"/>
-      <c r="M8" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8" s="146"/>
-      <c r="O8" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="P8" s="146"/>
-      <c r="Q8" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="R8" s="146"/>
-      <c r="S8" s="147" t="s">
+      <c r="L8" s="183"/>
+      <c r="M8" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="185"/>
+      <c r="O8" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" s="185"/>
+      <c r="Q8" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="R8" s="185"/>
+      <c r="S8" s="186" t="s">
         <v>116</v>
       </c>
-      <c r="T8" s="148"/>
-      <c r="U8" s="147" t="s">
+      <c r="T8" s="187"/>
+      <c r="U8" s="186" t="s">
         <v>116</v>
       </c>
-      <c r="V8" s="148"/>
-      <c r="W8" s="137"/>
-      <c r="X8" s="149"/>
-      <c r="Y8" s="147" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z8" s="148"/>
-      <c r="AA8" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB8" s="146"/>
-      <c r="AC8" s="118" t="s">
+      <c r="V8" s="187"/>
+      <c r="W8" s="176"/>
+      <c r="X8" s="188"/>
+      <c r="Y8" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z8" s="187"/>
+      <c r="AA8" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB8" s="185"/>
+      <c r="AC8" s="157" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="true">
-      <c r="A9" s="142" t="s">
+      <c r="A9" s="181" t="s">
         <v>117</v>
       </c>
-      <c r="B9" s="130" t="s">
+      <c r="B9" s="169" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="130" t="s">
+      <c r="C9" s="169" t="s">
         <v>119</v>
       </c>
-      <c r="D9" s="132" t="s">
+      <c r="D9" s="171" t="s">
         <v>131</v>
       </c>
-      <c r="E9" s="132" t="s">
+      <c r="E9" s="171" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="132" t="s">
+      <c r="F9" s="171" t="s">
         <v>120</v>
       </c>
-      <c r="G9" s="143" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="144"/>
-      <c r="I9" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="146"/>
-      <c r="K9" s="143" t="s">
+      <c r="G9" s="182" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="183"/>
+      <c r="I9" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="185"/>
+      <c r="K9" s="182" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="144"/>
-      <c r="M9" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="N9" s="146"/>
-      <c r="O9" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="P9" s="146"/>
-      <c r="Q9" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="R9" s="146"/>
-      <c r="S9" s="147" t="s">
+      <c r="L9" s="183"/>
+      <c r="M9" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="185"/>
+      <c r="O9" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" s="185"/>
+      <c r="Q9" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="R9" s="185"/>
+      <c r="S9" s="186" t="s">
         <v>121</v>
       </c>
-      <c r="T9" s="148"/>
-      <c r="U9" s="147" t="s">
+      <c r="T9" s="187"/>
+      <c r="U9" s="186" t="s">
         <v>121</v>
       </c>
-      <c r="V9" s="148"/>
-      <c r="W9" s="137"/>
-      <c r="X9" s="149"/>
-      <c r="Y9" s="147" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z9" s="148"/>
-      <c r="AA9" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB9" s="146"/>
-      <c r="AC9" s="118" t="s">
+      <c r="V9" s="187"/>
+      <c r="W9" s="176"/>
+      <c r="X9" s="188"/>
+      <c r="Y9" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z9" s="187"/>
+      <c r="AA9" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB9" s="185"/>
+      <c r="AC9" s="157" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="true">
-      <c r="A10" s="142" t="s">
+      <c r="A10" s="181" t="s">
         <v>122</v>
       </c>
-      <c r="B10" s="130" t="s">
+      <c r="B10" s="169" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="130" t="s">
+      <c r="C10" s="169" t="s">
         <v>124</v>
       </c>
-      <c r="D10" s="132" t="s">
+      <c r="D10" s="171" t="s">
         <v>132</v>
       </c>
-      <c r="E10" s="132" t="s">
+      <c r="E10" s="171" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="132" t="s">
+      <c r="F10" s="171" t="s">
         <v>92</v>
       </c>
-      <c r="G10" s="143" t="s">
+      <c r="G10" s="182" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="144"/>
-      <c r="I10" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="146"/>
-      <c r="K10" s="143" t="s">
+      <c r="H10" s="183"/>
+      <c r="I10" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="185"/>
+      <c r="K10" s="182" t="s">
         <v>59</v>
       </c>
-      <c r="L10" s="144"/>
-      <c r="M10" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="N10" s="146"/>
-      <c r="O10" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="P10" s="146"/>
-      <c r="Q10" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="R10" s="146"/>
-      <c r="S10" s="147" t="s">
-        <v>29</v>
-      </c>
-      <c r="T10" s="148"/>
-      <c r="U10" s="147" t="s">
+      <c r="L10" s="183"/>
+      <c r="M10" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="185"/>
+      <c r="O10" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" s="185"/>
+      <c r="Q10" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="R10" s="185"/>
+      <c r="S10" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="T10" s="187"/>
+      <c r="U10" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="V10" s="148"/>
-      <c r="W10" s="137"/>
-      <c r="X10" s="149"/>
-      <c r="Y10" s="147" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z10" s="148"/>
-      <c r="AA10" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB10" s="146"/>
-      <c r="AC10" s="118" t="s">
+      <c r="V10" s="187"/>
+      <c r="W10" s="176"/>
+      <c r="X10" s="188"/>
+      <c r="Y10" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z10" s="187"/>
+      <c r="AA10" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB10" s="185"/>
+      <c r="AC10" s="157" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="true">
-      <c r="A11" s="142" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="130" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="130" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="143" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="144"/>
-      <c r="I11" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" s="146"/>
-      <c r="K11" s="143" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" s="144"/>
-      <c r="M11" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="N11" s="146"/>
-      <c r="O11" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="P11" s="146"/>
-      <c r="Q11" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="R11" s="146"/>
-      <c r="S11" s="147" t="s">
-        <v>29</v>
-      </c>
-      <c r="T11" s="148"/>
-      <c r="U11" s="147" t="s">
-        <v>29</v>
-      </c>
-      <c r="V11" s="148"/>
-      <c r="W11" s="137"/>
-      <c r="X11" s="149"/>
-      <c r="Y11" s="147" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z11" s="148"/>
-      <c r="AA11" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB11" s="146"/>
-      <c r="AC11" s="118" t="s">
+      <c r="A11" s="181" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="169" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="169" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="171" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="171" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="171" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="182" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="183"/>
+      <c r="I11" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="185"/>
+      <c r="K11" s="182" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="183"/>
+      <c r="M11" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="185"/>
+      <c r="O11" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" s="185"/>
+      <c r="Q11" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="R11" s="185"/>
+      <c r="S11" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="T11" s="187"/>
+      <c r="U11" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="V11" s="187"/>
+      <c r="W11" s="176"/>
+      <c r="X11" s="188"/>
+      <c r="Y11" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z11" s="187"/>
+      <c r="AA11" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB11" s="185"/>
+      <c r="AC11" s="157" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="true">
-      <c r="A12" s="142" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="130" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="130" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="143" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="144"/>
-      <c r="I12" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="146"/>
-      <c r="K12" s="143" t="s">
-        <v>29</v>
-      </c>
-      <c r="L12" s="144"/>
-      <c r="M12" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="N12" s="146"/>
-      <c r="O12" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="P12" s="146"/>
-      <c r="Q12" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="R12" s="146"/>
-      <c r="S12" s="147" t="s">
-        <v>29</v>
-      </c>
-      <c r="T12" s="148"/>
-      <c r="U12" s="147" t="s">
-        <v>29</v>
-      </c>
-      <c r="V12" s="148"/>
-      <c r="W12" s="137"/>
-      <c r="X12" s="149"/>
-      <c r="Y12" s="147" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z12" s="148"/>
-      <c r="AA12" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB12" s="146"/>
-      <c r="AC12" s="118" t="s">
+      <c r="A12" s="181" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="169" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="169" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="171" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="171" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="171" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="182" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="183"/>
+      <c r="I12" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="185"/>
+      <c r="K12" s="182" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="183"/>
+      <c r="M12" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" s="185"/>
+      <c r="O12" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" s="185"/>
+      <c r="Q12" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="R12" s="185"/>
+      <c r="S12" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="T12" s="187"/>
+      <c r="U12" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="V12" s="187"/>
+      <c r="W12" s="176"/>
+      <c r="X12" s="188"/>
+      <c r="Y12" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z12" s="187"/>
+      <c r="AA12" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB12" s="185"/>
+      <c r="AC12" s="157" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="true">
-      <c r="A13" s="142" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="130" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="130" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="143" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="144"/>
-      <c r="I13" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="146"/>
-      <c r="K13" s="143" t="s">
-        <v>29</v>
-      </c>
-      <c r="L13" s="144"/>
-      <c r="M13" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="N13" s="146"/>
-      <c r="O13" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="P13" s="146"/>
-      <c r="Q13" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="R13" s="146"/>
-      <c r="S13" s="147" t="s">
-        <v>29</v>
-      </c>
-      <c r="T13" s="148"/>
-      <c r="U13" s="147" t="s">
-        <v>29</v>
-      </c>
-      <c r="V13" s="148"/>
-      <c r="W13" s="137"/>
-      <c r="X13" s="149"/>
-      <c r="Y13" s="147" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z13" s="148"/>
-      <c r="AA13" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB13" s="146"/>
-      <c r="AC13" s="118" t="s">
+      <c r="A13" s="181" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="169" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="169" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="171" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="171" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="171" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="182" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="183"/>
+      <c r="I13" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="185"/>
+      <c r="K13" s="182" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="183"/>
+      <c r="M13" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="N13" s="185"/>
+      <c r="O13" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" s="185"/>
+      <c r="Q13" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="R13" s="185"/>
+      <c r="S13" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="T13" s="187"/>
+      <c r="U13" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="V13" s="187"/>
+      <c r="W13" s="176"/>
+      <c r="X13" s="188"/>
+      <c r="Y13" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z13" s="187"/>
+      <c r="AA13" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB13" s="185"/>
+      <c r="AC13" s="157" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="true">
-      <c r="A14" s="142" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="130" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="130" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="143" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="144"/>
-      <c r="I14" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" s="146"/>
-      <c r="K14" s="143" t="s">
-        <v>29</v>
-      </c>
-      <c r="L14" s="144"/>
-      <c r="M14" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="N14" s="146"/>
-      <c r="O14" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="P14" s="146"/>
-      <c r="Q14" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="R14" s="146"/>
-      <c r="S14" s="147" t="s">
-        <v>29</v>
-      </c>
-      <c r="T14" s="148"/>
-      <c r="U14" s="147" t="s">
-        <v>29</v>
-      </c>
-      <c r="V14" s="148"/>
-      <c r="W14" s="137"/>
-      <c r="X14" s="149"/>
-      <c r="Y14" s="147" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z14" s="148"/>
-      <c r="AA14" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB14" s="146"/>
-      <c r="AC14" s="118" t="s">
+      <c r="A14" s="181" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="169" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="169" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="171" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="171" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="171" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="182" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="183"/>
+      <c r="I14" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="185"/>
+      <c r="K14" s="182" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" s="183"/>
+      <c r="M14" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="N14" s="185"/>
+      <c r="O14" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" s="185"/>
+      <c r="Q14" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="R14" s="185"/>
+      <c r="S14" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="T14" s="187"/>
+      <c r="U14" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="V14" s="187"/>
+      <c r="W14" s="176"/>
+      <c r="X14" s="188"/>
+      <c r="Y14" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z14" s="187"/>
+      <c r="AA14" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB14" s="185"/>
+      <c r="AC14" s="157" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="true">
-      <c r="A15" s="142" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="130" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="130" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="143" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="144"/>
-      <c r="I15" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="J15" s="146"/>
-      <c r="K15" s="143" t="s">
-        <v>29</v>
-      </c>
-      <c r="L15" s="144"/>
-      <c r="M15" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="N15" s="146"/>
-      <c r="O15" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="P15" s="146"/>
-      <c r="Q15" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="R15" s="146"/>
-      <c r="S15" s="147" t="s">
-        <v>29</v>
-      </c>
-      <c r="T15" s="148"/>
-      <c r="U15" s="147" t="s">
-        <v>29</v>
-      </c>
-      <c r="V15" s="148"/>
-      <c r="W15" s="137"/>
-      <c r="X15" s="149"/>
-      <c r="Y15" s="147" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z15" s="148"/>
-      <c r="AA15" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB15" s="146"/>
-      <c r="AC15" s="118" t="s">
+      <c r="A15" s="181" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="169" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="169" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="171" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="171" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="171" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="182" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="183"/>
+      <c r="I15" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="185"/>
+      <c r="K15" s="182" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" s="183"/>
+      <c r="M15" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15" s="185"/>
+      <c r="O15" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="P15" s="185"/>
+      <c r="Q15" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="R15" s="185"/>
+      <c r="S15" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="T15" s="187"/>
+      <c r="U15" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="V15" s="187"/>
+      <c r="W15" s="176"/>
+      <c r="X15" s="188"/>
+      <c r="Y15" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z15" s="187"/>
+      <c r="AA15" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB15" s="185"/>
+      <c r="AC15" s="157" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="true">
-      <c r="A16" s="142" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="130" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="130" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="143" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="144"/>
-      <c r="I16" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="J16" s="146"/>
-      <c r="K16" s="143" t="s">
-        <v>29</v>
-      </c>
-      <c r="L16" s="144"/>
-      <c r="M16" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="N16" s="146"/>
-      <c r="O16" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="P16" s="146"/>
-      <c r="Q16" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="R16" s="146"/>
-      <c r="S16" s="147" t="s">
-        <v>29</v>
-      </c>
-      <c r="T16" s="148"/>
-      <c r="U16" s="147" t="s">
-        <v>29</v>
-      </c>
-      <c r="V16" s="148"/>
-      <c r="W16" s="137"/>
-      <c r="X16" s="149"/>
-      <c r="Y16" s="147" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z16" s="148"/>
-      <c r="AA16" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB16" s="146"/>
-      <c r="AC16" s="118" t="s">
+      <c r="A16" s="181" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="169" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="169" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="171" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="171" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="171" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="182" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="183"/>
+      <c r="I16" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="185"/>
+      <c r="K16" s="182" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" s="183"/>
+      <c r="M16" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="N16" s="185"/>
+      <c r="O16" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="P16" s="185"/>
+      <c r="Q16" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="R16" s="185"/>
+      <c r="S16" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="T16" s="187"/>
+      <c r="U16" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="V16" s="187"/>
+      <c r="W16" s="176"/>
+      <c r="X16" s="188"/>
+      <c r="Y16" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z16" s="187"/>
+      <c r="AA16" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB16" s="185"/>
+      <c r="AC16" s="157" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="true">
-      <c r="A17" s="142" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="130" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="130" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="143" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="144"/>
-      <c r="I17" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="J17" s="146"/>
-      <c r="K17" s="143" t="s">
-        <v>29</v>
-      </c>
-      <c r="L17" s="144"/>
-      <c r="M17" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="N17" s="146"/>
-      <c r="O17" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="P17" s="146"/>
-      <c r="Q17" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="R17" s="146"/>
-      <c r="S17" s="147" t="s">
-        <v>29</v>
-      </c>
-      <c r="T17" s="148"/>
-      <c r="U17" s="147" t="s">
-        <v>29</v>
-      </c>
-      <c r="V17" s="148"/>
-      <c r="W17" s="137"/>
-      <c r="X17" s="149"/>
-      <c r="Y17" s="147" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z17" s="148"/>
-      <c r="AA17" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB17" s="146"/>
-      <c r="AC17" s="118" t="s">
+      <c r="A17" s="181" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="169" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="169" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="171" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="171" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="171" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="182" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="183"/>
+      <c r="I17" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="185"/>
+      <c r="K17" s="182" t="s">
+        <v>29</v>
+      </c>
+      <c r="L17" s="183"/>
+      <c r="M17" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="N17" s="185"/>
+      <c r="O17" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="P17" s="185"/>
+      <c r="Q17" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="R17" s="185"/>
+      <c r="S17" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="T17" s="187"/>
+      <c r="U17" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="V17" s="187"/>
+      <c r="W17" s="176"/>
+      <c r="X17" s="188"/>
+      <c r="Y17" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z17" s="187"/>
+      <c r="AA17" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB17" s="185"/>
+      <c r="AC17" s="157" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="true">
-      <c r="A18" s="142" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="130" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="130" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="143" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="144"/>
-      <c r="I18" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" s="146"/>
-      <c r="K18" s="143" t="s">
-        <v>29</v>
-      </c>
-      <c r="L18" s="144"/>
-      <c r="M18" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="N18" s="146"/>
-      <c r="O18" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="P18" s="146"/>
-      <c r="Q18" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="R18" s="146"/>
-      <c r="S18" s="147" t="s">
-        <v>29</v>
-      </c>
-      <c r="T18" s="148"/>
-      <c r="U18" s="147" t="s">
-        <v>29</v>
-      </c>
-      <c r="V18" s="148"/>
-      <c r="W18" s="137"/>
-      <c r="X18" s="149"/>
-      <c r="Y18" s="147" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z18" s="148"/>
-      <c r="AA18" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB18" s="146"/>
-      <c r="AC18" s="118" t="s">
+      <c r="A18" s="181" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="169" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="169" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="171" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="171" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="171" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="182" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="183"/>
+      <c r="I18" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="185"/>
+      <c r="K18" s="182" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18" s="183"/>
+      <c r="M18" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="N18" s="185"/>
+      <c r="O18" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="P18" s="185"/>
+      <c r="Q18" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="R18" s="185"/>
+      <c r="S18" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="T18" s="187"/>
+      <c r="U18" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="V18" s="187"/>
+      <c r="W18" s="176"/>
+      <c r="X18" s="188"/>
+      <c r="Y18" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z18" s="187"/>
+      <c r="AA18" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB18" s="185"/>
+      <c r="AC18" s="157" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="true">
-      <c r="A19" s="142" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="130" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="130" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="143" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="144"/>
-      <c r="I19" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" s="146"/>
-      <c r="K19" s="143" t="s">
-        <v>29</v>
-      </c>
-      <c r="L19" s="144"/>
-      <c r="M19" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="N19" s="146"/>
-      <c r="O19" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="P19" s="146"/>
-      <c r="Q19" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="R19" s="146"/>
-      <c r="S19" s="147" t="s">
-        <v>29</v>
-      </c>
-      <c r="T19" s="148"/>
-      <c r="U19" s="147" t="s">
-        <v>29</v>
-      </c>
-      <c r="V19" s="148"/>
-      <c r="W19" s="137"/>
-      <c r="X19" s="149"/>
-      <c r="Y19" s="147" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z19" s="148"/>
-      <c r="AA19" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB19" s="146"/>
-      <c r="AC19" s="118" t="s">
+      <c r="A19" s="181" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="169" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="169" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="171" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="171" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="171" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="182" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="183"/>
+      <c r="I19" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="185"/>
+      <c r="K19" s="182" t="s">
+        <v>29</v>
+      </c>
+      <c r="L19" s="183"/>
+      <c r="M19" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="N19" s="185"/>
+      <c r="O19" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="P19" s="185"/>
+      <c r="Q19" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="R19" s="185"/>
+      <c r="S19" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="T19" s="187"/>
+      <c r="U19" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="V19" s="187"/>
+      <c r="W19" s="176"/>
+      <c r="X19" s="188"/>
+      <c r="Y19" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z19" s="187"/>
+      <c r="AA19" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB19" s="185"/>
+      <c r="AC19" s="157" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="true">
-      <c r="A20" s="142" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="130" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="130" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="143" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" s="144"/>
-      <c r="I20" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="J20" s="146"/>
-      <c r="K20" s="143" t="s">
-        <v>29</v>
-      </c>
-      <c r="L20" s="144"/>
-      <c r="M20" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="N20" s="146"/>
-      <c r="O20" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="P20" s="146"/>
-      <c r="Q20" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="R20" s="146"/>
-      <c r="S20" s="147" t="s">
-        <v>29</v>
-      </c>
-      <c r="T20" s="148"/>
-      <c r="U20" s="147" t="s">
-        <v>29</v>
-      </c>
-      <c r="V20" s="148"/>
-      <c r="W20" s="137"/>
-      <c r="X20" s="149"/>
-      <c r="Y20" s="147" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z20" s="148"/>
-      <c r="AA20" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB20" s="146"/>
-      <c r="AC20" s="118" t="s">
+      <c r="A20" s="181" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="169" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="169" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="171" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="171" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="171" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="182" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="183"/>
+      <c r="I20" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="185"/>
+      <c r="K20" s="182" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" s="183"/>
+      <c r="M20" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="N20" s="185"/>
+      <c r="O20" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="P20" s="185"/>
+      <c r="Q20" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="R20" s="185"/>
+      <c r="S20" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="T20" s="187"/>
+      <c r="U20" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="V20" s="187"/>
+      <c r="W20" s="176"/>
+      <c r="X20" s="188"/>
+      <c r="Y20" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z20" s="187"/>
+      <c r="AA20" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB20" s="185"/>
+      <c r="AC20" s="157" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="true">
-      <c r="A21" s="142" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="130" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="130" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="143" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" s="144"/>
-      <c r="I21" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21" s="146"/>
-      <c r="K21" s="143" t="s">
-        <v>29</v>
-      </c>
-      <c r="L21" s="144"/>
-      <c r="M21" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="N21" s="146"/>
-      <c r="O21" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="P21" s="146"/>
-      <c r="Q21" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="R21" s="146"/>
-      <c r="S21" s="147" t="s">
-        <v>29</v>
-      </c>
-      <c r="T21" s="148"/>
-      <c r="U21" s="147" t="s">
-        <v>29</v>
-      </c>
-      <c r="V21" s="148"/>
-      <c r="W21" s="137"/>
-      <c r="X21" s="149"/>
-      <c r="Y21" s="147" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z21" s="148"/>
-      <c r="AA21" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB21" s="146"/>
-      <c r="AC21" s="118" t="s">
+      <c r="A21" s="181" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="169" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="169" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="171" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="171" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="171" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="182" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="183"/>
+      <c r="I21" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="185"/>
+      <c r="K21" s="182" t="s">
+        <v>29</v>
+      </c>
+      <c r="L21" s="183"/>
+      <c r="M21" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="N21" s="185"/>
+      <c r="O21" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="P21" s="185"/>
+      <c r="Q21" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="R21" s="185"/>
+      <c r="S21" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="T21" s="187"/>
+      <c r="U21" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="V21" s="187"/>
+      <c r="W21" s="176"/>
+      <c r="X21" s="188"/>
+      <c r="Y21" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z21" s="187"/>
+      <c r="AA21" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB21" s="185"/>
+      <c r="AC21" s="157" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="true">
-      <c r="A22" s="142" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="130" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="130" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="143" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" s="144"/>
-      <c r="I22" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="J22" s="146"/>
-      <c r="K22" s="143" t="s">
-        <v>29</v>
-      </c>
-      <c r="L22" s="144"/>
-      <c r="M22" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="N22" s="146"/>
-      <c r="O22" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="P22" s="146"/>
-      <c r="Q22" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="R22" s="146"/>
-      <c r="S22" s="147" t="s">
-        <v>29</v>
-      </c>
-      <c r="T22" s="148"/>
-      <c r="U22" s="147" t="s">
-        <v>29</v>
-      </c>
-      <c r="V22" s="148"/>
-      <c r="W22" s="137"/>
-      <c r="X22" s="149"/>
-      <c r="Y22" s="147" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z22" s="148"/>
-      <c r="AA22" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB22" s="146"/>
-      <c r="AC22" s="118" t="s">
+      <c r="A22" s="181" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="169" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="169" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="171" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="171" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="171" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="182" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="183"/>
+      <c r="I22" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" s="185"/>
+      <c r="K22" s="182" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22" s="183"/>
+      <c r="M22" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="N22" s="185"/>
+      <c r="O22" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="P22" s="185"/>
+      <c r="Q22" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="R22" s="185"/>
+      <c r="S22" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="T22" s="187"/>
+      <c r="U22" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="V22" s="187"/>
+      <c r="W22" s="176"/>
+      <c r="X22" s="188"/>
+      <c r="Y22" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z22" s="187"/>
+      <c r="AA22" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB22" s="185"/>
+      <c r="AC22" s="157" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="true">
-      <c r="A23" s="142" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="130" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="130" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="143" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="144"/>
-      <c r="I23" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="J23" s="146"/>
-      <c r="K23" s="143" t="s">
-        <v>29</v>
-      </c>
-      <c r="L23" s="144"/>
-      <c r="M23" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="N23" s="146"/>
-      <c r="O23" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="P23" s="146"/>
-      <c r="Q23" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="R23" s="146"/>
-      <c r="S23" s="147" t="s">
-        <v>29</v>
-      </c>
-      <c r="T23" s="148"/>
-      <c r="U23" s="147" t="s">
-        <v>29</v>
-      </c>
-      <c r="V23" s="148"/>
-      <c r="W23" s="137"/>
-      <c r="X23" s="149"/>
-      <c r="Y23" s="147" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z23" s="148"/>
-      <c r="AA23" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB23" s="146"/>
-      <c r="AC23" s="118" t="s">
+      <c r="A23" s="181" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="169" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="169" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="171" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="171" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="171" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="182" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="183"/>
+      <c r="I23" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="185"/>
+      <c r="K23" s="182" t="s">
+        <v>29</v>
+      </c>
+      <c r="L23" s="183"/>
+      <c r="M23" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="N23" s="185"/>
+      <c r="O23" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="P23" s="185"/>
+      <c r="Q23" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="R23" s="185"/>
+      <c r="S23" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="T23" s="187"/>
+      <c r="U23" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="V23" s="187"/>
+      <c r="W23" s="176"/>
+      <c r="X23" s="188"/>
+      <c r="Y23" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z23" s="187"/>
+      <c r="AA23" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB23" s="185"/>
+      <c r="AC23" s="157" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="true">
-      <c r="A24" s="142" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="130" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="130" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" s="143" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" s="144"/>
-      <c r="I24" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="J24" s="146"/>
-      <c r="K24" s="143" t="s">
-        <v>29</v>
-      </c>
-      <c r="L24" s="144"/>
-      <c r="M24" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="N24" s="146"/>
-      <c r="O24" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="P24" s="146"/>
-      <c r="Q24" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="R24" s="146"/>
-      <c r="S24" s="147" t="s">
-        <v>29</v>
-      </c>
-      <c r="T24" s="148"/>
-      <c r="U24" s="147" t="s">
-        <v>29</v>
-      </c>
-      <c r="V24" s="148"/>
-      <c r="W24" s="137"/>
-      <c r="X24" s="149"/>
-      <c r="Y24" s="147" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z24" s="148"/>
-      <c r="AA24" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB24" s="146"/>
-      <c r="AC24" s="118" t="s">
+      <c r="A24" s="181" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="169" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="169" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="171" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="171" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="171" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="182" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="183"/>
+      <c r="I24" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="185"/>
+      <c r="K24" s="182" t="s">
+        <v>29</v>
+      </c>
+      <c r="L24" s="183"/>
+      <c r="M24" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="N24" s="185"/>
+      <c r="O24" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="P24" s="185"/>
+      <c r="Q24" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="R24" s="185"/>
+      <c r="S24" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="T24" s="187"/>
+      <c r="U24" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="V24" s="187"/>
+      <c r="W24" s="176"/>
+      <c r="X24" s="188"/>
+      <c r="Y24" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z24" s="187"/>
+      <c r="AA24" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB24" s="185"/>
+      <c r="AC24" s="157" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="true">
-      <c r="A25" s="142" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="130" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="130" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" s="143" t="s">
-        <v>29</v>
-      </c>
-      <c r="H25" s="144"/>
-      <c r="I25" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="J25" s="146"/>
-      <c r="K25" s="143" t="s">
-        <v>29</v>
-      </c>
-      <c r="L25" s="144"/>
-      <c r="M25" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="N25" s="146"/>
-      <c r="O25" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="P25" s="146"/>
-      <c r="Q25" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="R25" s="146"/>
-      <c r="S25" s="147" t="s">
-        <v>29</v>
-      </c>
-      <c r="T25" s="148"/>
-      <c r="U25" s="147" t="s">
-        <v>29</v>
-      </c>
-      <c r="V25" s="148"/>
-      <c r="W25" s="137"/>
-      <c r="X25" s="149"/>
-      <c r="Y25" s="147" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z25" s="148"/>
-      <c r="AA25" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB25" s="146"/>
-      <c r="AC25" s="118" t="s">
+      <c r="A25" s="181" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="169" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="169" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="171" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="171" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="171" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="182" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="183"/>
+      <c r="I25" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" s="185"/>
+      <c r="K25" s="182" t="s">
+        <v>29</v>
+      </c>
+      <c r="L25" s="183"/>
+      <c r="M25" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="N25" s="185"/>
+      <c r="O25" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="P25" s="185"/>
+      <c r="Q25" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="R25" s="185"/>
+      <c r="S25" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="T25" s="187"/>
+      <c r="U25" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="V25" s="187"/>
+      <c r="W25" s="176"/>
+      <c r="X25" s="188"/>
+      <c r="Y25" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z25" s="187"/>
+      <c r="AA25" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB25" s="185"/>
+      <c r="AC25" s="157" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="true">
-      <c r="A26" s="142" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="130" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="130" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26" s="143" t="s">
-        <v>29</v>
-      </c>
-      <c r="H26" s="144"/>
-      <c r="I26" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="J26" s="146"/>
-      <c r="K26" s="143" t="s">
-        <v>29</v>
-      </c>
-      <c r="L26" s="144"/>
-      <c r="M26" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="N26" s="146"/>
-      <c r="O26" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="P26" s="146"/>
-      <c r="Q26" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="R26" s="146"/>
-      <c r="S26" s="147" t="s">
-        <v>29</v>
-      </c>
-      <c r="T26" s="148"/>
-      <c r="U26" s="147" t="s">
-        <v>29</v>
-      </c>
-      <c r="V26" s="148"/>
-      <c r="W26" s="137"/>
-      <c r="X26" s="149"/>
-      <c r="Y26" s="147" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z26" s="148"/>
-      <c r="AA26" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB26" s="146"/>
-      <c r="AC26" s="118" t="s">
+      <c r="A26" s="181" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="169" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="169" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="171" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="171" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="171" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="182" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="183"/>
+      <c r="I26" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" s="185"/>
+      <c r="K26" s="182" t="s">
+        <v>29</v>
+      </c>
+      <c r="L26" s="183"/>
+      <c r="M26" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="N26" s="185"/>
+      <c r="O26" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="P26" s="185"/>
+      <c r="Q26" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="R26" s="185"/>
+      <c r="S26" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="T26" s="187"/>
+      <c r="U26" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="V26" s="187"/>
+      <c r="W26" s="176"/>
+      <c r="X26" s="188"/>
+      <c r="Y26" s="186" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z26" s="187"/>
+      <c r="AA26" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB26" s="185"/>
+      <c r="AC26" s="157" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="true">
-      <c r="A27" s="150"/>
-      <c r="B27" s="151"/>
-      <c r="C27" s="151"/>
-      <c r="D27" s="151"/>
-      <c r="E27" s="151"/>
-      <c r="F27" s="132" t="s">
+      <c r="A27" s="189"/>
+      <c r="B27" s="190"/>
+      <c r="C27" s="190"/>
+      <c r="D27" s="190"/>
+      <c r="E27" s="190"/>
+      <c r="F27" s="171" t="s">
         <v>60</v>
       </c>
-      <c r="G27" s="143" t="s">
+      <c r="G27" s="182" t="s">
         <v>59</v>
       </c>
-      <c r="H27" s="144"/>
-      <c r="I27" s="143" t="s">
+      <c r="H27" s="183"/>
+      <c r="I27" s="182" t="s">
         <v>30</v>
       </c>
-      <c r="J27" s="144"/>
-      <c r="K27" s="143" t="s">
+      <c r="J27" s="183"/>
+      <c r="K27" s="182" t="s">
         <v>59</v>
       </c>
-      <c r="L27" s="144"/>
-      <c r="M27" s="143" t="s">
+      <c r="L27" s="183"/>
+      <c r="M27" s="182" t="s">
         <v>30</v>
       </c>
-      <c r="N27" s="144"/>
-      <c r="O27" s="145" t="s">
+      <c r="N27" s="183"/>
+      <c r="O27" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="P27" s="146"/>
-      <c r="Q27" s="145" t="s">
+      <c r="P27" s="185"/>
+      <c r="Q27" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="R27" s="146"/>
-      <c r="S27" s="143" t="s">
+      <c r="R27" s="185"/>
+      <c r="S27" s="182" t="s">
         <v>125</v>
       </c>
-      <c r="T27" s="144"/>
-      <c r="U27" s="143" t="s">
+      <c r="T27" s="183"/>
+      <c r="U27" s="182" t="s">
         <v>125</v>
       </c>
-      <c r="V27" s="144"/>
-      <c r="W27" s="145"/>
-      <c r="X27" s="146"/>
-      <c r="Y27" s="143" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z27" s="144"/>
-      <c r="AA27" s="145" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB27" s="146"/>
-      <c r="AC27" s="132"/>
+      <c r="V27" s="183"/>
+      <c r="W27" s="184"/>
+      <c r="X27" s="185"/>
+      <c r="Y27" s="182" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z27" s="183"/>
+      <c r="AA27" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB27" s="185"/>
+      <c r="AC27" s="171"/>
     </row>
     <row r="28" ht="23.25" customHeight="true">
-      <c r="A28" s="150"/>
-      <c r="B28" s="151"/>
-      <c r="C28" s="151"/>
-      <c r="D28" s="151"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="152" t="s">
+      <c r="A28" s="189"/>
+      <c r="B28" s="190"/>
+      <c r="C28" s="190"/>
+      <c r="D28" s="190"/>
+      <c r="E28" s="190"/>
+      <c r="F28" s="191" t="s">
         <v>62</v>
       </c>
-      <c r="G28" s="143" t="s">
+      <c r="G28" s="182" t="s">
         <v>94</v>
       </c>
-      <c r="H28" s="144"/>
-      <c r="I28" s="143" t="s">
+      <c r="H28" s="183"/>
+      <c r="I28" s="182" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="144"/>
-      <c r="K28" s="143" t="s">
+      <c r="J28" s="183"/>
+      <c r="K28" s="182" t="s">
         <v>94</v>
       </c>
-      <c r="L28" s="144"/>
-      <c r="M28" s="143" t="s">
+      <c r="L28" s="183"/>
+      <c r="M28" s="182" t="s">
         <v>30</v>
       </c>
-      <c r="N28" s="144"/>
-      <c r="O28" s="145" t="s">
+      <c r="N28" s="183"/>
+      <c r="O28" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="P28" s="146"/>
-      <c r="Q28" s="145" t="s">
+      <c r="P28" s="185"/>
+      <c r="Q28" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="R28" s="146"/>
-      <c r="S28" s="143" t="s">
+      <c r="R28" s="185"/>
+      <c r="S28" s="182" t="s">
         <v>95</v>
       </c>
-      <c r="T28" s="144"/>
-      <c r="U28" s="143" t="s">
+      <c r="T28" s="183"/>
+      <c r="U28" s="182" t="s">
         <v>95</v>
       </c>
-      <c r="V28" s="144"/>
-      <c r="W28" s="145"/>
-      <c r="X28" s="146"/>
-      <c r="Y28" s="143" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z28" s="144"/>
-      <c r="AA28" s="145" t="s">
+      <c r="V28" s="183"/>
+      <c r="W28" s="184"/>
+      <c r="X28" s="185"/>
+      <c r="Y28" s="182" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z28" s="183"/>
+      <c r="AA28" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="AB28" s="146"/>
-      <c r="AC28" s="132"/>
+      <c r="AB28" s="185"/>
+      <c r="AC28" s="171"/>
     </row>
     <row r="29" ht="14.25" customHeight="true">
-      <c r="A29" s="150"/>
-      <c r="B29" s="151"/>
-      <c r="C29" s="151"/>
-      <c r="D29" s="151"/>
-      <c r="E29" s="151"/>
-      <c r="F29" s="132" t="s">
+      <c r="A29" s="189"/>
+      <c r="B29" s="190"/>
+      <c r="C29" s="190"/>
+      <c r="D29" s="190"/>
+      <c r="E29" s="190"/>
+      <c r="F29" s="171" t="s">
         <v>63</v>
       </c>
-      <c r="G29" s="143" t="s">
+      <c r="G29" s="182" t="s">
         <v>126</v>
       </c>
-      <c r="H29" s="144"/>
-      <c r="I29" s="143" t="s">
+      <c r="H29" s="183"/>
+      <c r="I29" s="182" t="s">
         <v>30</v>
       </c>
-      <c r="J29" s="144"/>
-      <c r="K29" s="143" t="s">
+      <c r="J29" s="183"/>
+      <c r="K29" s="182" t="s">
         <v>126</v>
       </c>
-      <c r="L29" s="144"/>
-      <c r="M29" s="143" t="s">
+      <c r="L29" s="183"/>
+      <c r="M29" s="182" t="s">
         <v>30</v>
       </c>
-      <c r="N29" s="144"/>
-      <c r="O29" s="145" t="s">
+      <c r="N29" s="183"/>
+      <c r="O29" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="P29" s="146"/>
-      <c r="Q29" s="145" t="s">
+      <c r="P29" s="185"/>
+      <c r="Q29" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="R29" s="146"/>
-      <c r="S29" s="143" t="s">
+      <c r="R29" s="185"/>
+      <c r="S29" s="182" t="s">
         <v>127</v>
       </c>
-      <c r="T29" s="144"/>
-      <c r="U29" s="143" t="s">
+      <c r="T29" s="183"/>
+      <c r="U29" s="182" t="s">
         <v>127</v>
       </c>
-      <c r="V29" s="144"/>
-      <c r="W29" s="145"/>
-      <c r="X29" s="146"/>
-      <c r="Y29" s="143" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z29" s="144"/>
-      <c r="AA29" s="145" t="s">
+      <c r="V29" s="183"/>
+      <c r="W29" s="184"/>
+      <c r="X29" s="185"/>
+      <c r="Y29" s="182" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z29" s="183"/>
+      <c r="AA29" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="AB29" s="146"/>
-      <c r="AC29" s="132"/>
+      <c r="AB29" s="185"/>
+      <c r="AC29" s="171"/>
     </row>
     <row r="30" ht="14.25" customHeight="true">
-      <c r="A30" s="153" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="154"/>
-      <c r="C30" s="155"/>
-      <c r="D30" s="154"/>
-      <c r="E30" s="154"/>
-      <c r="F30" s="154"/>
-      <c r="G30" s="154"/>
-      <c r="H30" s="154"/>
-      <c r="I30" s="154"/>
-      <c r="J30" s="154"/>
-      <c r="K30" s="154"/>
-      <c r="L30" s="154"/>
-      <c r="M30" s="154"/>
-      <c r="N30" s="154"/>
-      <c r="O30" s="154"/>
-      <c r="P30" s="154"/>
-      <c r="Q30" s="154"/>
-      <c r="R30" s="154"/>
-      <c r="S30" s="154"/>
-      <c r="T30" s="154"/>
-      <c r="U30" s="154"/>
-      <c r="V30" s="154"/>
-      <c r="W30" s="154"/>
-      <c r="X30" s="154"/>
-      <c r="Y30" s="154"/>
-      <c r="Z30" s="154"/>
-      <c r="AA30" s="154"/>
-      <c r="AB30" s="154"/>
-      <c r="AC30" s="156"/>
+      <c r="A30" s="192" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="193"/>
+      <c r="C30" s="194"/>
+      <c r="D30" s="193"/>
+      <c r="E30" s="193"/>
+      <c r="F30" s="193"/>
+      <c r="G30" s="193"/>
+      <c r="H30" s="193"/>
+      <c r="I30" s="193"/>
+      <c r="J30" s="193"/>
+      <c r="K30" s="193"/>
+      <c r="L30" s="193"/>
+      <c r="M30" s="193"/>
+      <c r="N30" s="193"/>
+      <c r="O30" s="193"/>
+      <c r="P30" s="193"/>
+      <c r="Q30" s="193"/>
+      <c r="R30" s="193"/>
+      <c r="S30" s="193"/>
+      <c r="T30" s="193"/>
+      <c r="U30" s="193"/>
+      <c r="V30" s="193"/>
+      <c r="W30" s="193"/>
+      <c r="X30" s="193"/>
+      <c r="Y30" s="193"/>
+      <c r="Z30" s="193"/>
+      <c r="AA30" s="193"/>
+      <c r="AB30" s="193"/>
+      <c r="AC30" s="195"/>
     </row>
   </sheetData>
   <mergeCells>
